--- a/files/separadas/repeat_p31.xlsx
+++ b/files/separadas/repeat_p31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="514">
   <si>
     <t>p31_cod</t>
   </si>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>OAP-MEM22-0027</t>
@@ -1966,13 +1954,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S119"/>
+  <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2018,37 +2006,25 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2057,45 +2033,33 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>516</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2104,45 +2068,33 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M3" t="s">
-        <v>516</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -2151,45 +2103,33 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M4" t="s">
-        <v>516</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -2198,45 +2138,33 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M5" t="s">
-        <v>516</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2245,45 +2173,33 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M6" t="s">
-        <v>516</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2292,45 +2208,33 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M7" t="s">
-        <v>516</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -2339,45 +2243,33 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M8" t="s">
-        <v>516</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2386,45 +2278,33 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="J9" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M9" t="s">
-        <v>516</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -2433,45 +2313,33 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J10" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="M10" t="s">
-        <v>516</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -2480,45 +2348,33 @@
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J11" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M11" t="s">
-        <v>516</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -2527,45 +2383,33 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M12" t="s">
-        <v>516</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D13" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -2574,45 +2418,33 @@
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J13" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M13" t="s">
-        <v>516</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D14" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -2621,45 +2453,33 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M14" t="s">
-        <v>516</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D15" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -2668,45 +2488,33 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M15" t="s">
-        <v>516</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -2715,45 +2523,33 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M16" t="s">
-        <v>516</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D17" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G17">
         <v>11</v>
@@ -2762,45 +2558,33 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M17" t="s">
-        <v>516</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D18" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G18">
         <v>11</v>
@@ -2809,45 +2593,33 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M18" t="s">
-        <v>516</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D19" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G19">
         <v>12</v>
@@ -2856,45 +2628,33 @@
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J19" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M19" t="s">
-        <v>516</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D20" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G20">
         <v>13</v>
@@ -2903,45 +2663,33 @@
         <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="J20" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M20" t="s">
-        <v>517</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D21" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G21">
         <v>14</v>
@@ -2950,45 +2698,33 @@
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="J21" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M21" t="s">
-        <v>516</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D22" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G22">
         <v>14</v>
@@ -2997,45 +2733,33 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="J22" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M22" t="s">
-        <v>516</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D23" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G23">
         <v>15</v>
@@ -3044,45 +2768,33 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J23" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M23" t="s">
-        <v>517</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D24" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G24">
         <v>15</v>
@@ -3091,42 +2803,30 @@
         <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J24" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M24" t="s">
-        <v>517</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="B25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D25" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G25">
         <v>15</v>
@@ -3135,45 +2835,33 @@
         <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J25" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M25" t="s">
-        <v>517</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D26" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G26">
         <v>16</v>
@@ -3182,45 +2870,33 @@
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J26" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M26" t="s">
-        <v>516</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D27" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G27">
         <v>17</v>
@@ -3229,45 +2905,33 @@
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="J27" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="M27" t="s">
-        <v>516</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D28" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G28">
         <v>18</v>
@@ -3276,45 +2940,33 @@
         <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J28" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="M28" t="s">
-        <v>516</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D29" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G29">
         <v>19</v>
@@ -3323,45 +2975,33 @@
         <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J29" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M29" t="s">
-        <v>516</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D30" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G30">
         <v>19</v>
@@ -3370,45 +3010,33 @@
         <v>30</v>
       </c>
       <c r="I30" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J30" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M30" t="s">
-        <v>516</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D31" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G31">
         <v>20</v>
@@ -3417,45 +3045,33 @@
         <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J31" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M31" t="s">
-        <v>516</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D32" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G32">
         <v>21</v>
@@ -3464,45 +3080,33 @@
         <v>34</v>
       </c>
       <c r="I32" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J32" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M32" t="s">
-        <v>516</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D33" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G33">
         <v>22</v>
@@ -3511,45 +3115,33 @@
         <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J33" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M33" t="s">
-        <v>516</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D34" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G34">
         <v>22</v>
@@ -3558,45 +3150,33 @@
         <v>37</v>
       </c>
       <c r="I34" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J34" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M34" t="s">
-        <v>516</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D35" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G35">
         <v>22</v>
@@ -3605,45 +3185,33 @@
         <v>37</v>
       </c>
       <c r="I35" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J35" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M35" t="s">
-        <v>516</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D36" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G36">
         <v>22</v>
@@ -3652,45 +3220,33 @@
         <v>37</v>
       </c>
       <c r="I36" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J36" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M36" t="s">
-        <v>516</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D37" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G37">
         <v>22</v>
@@ -3699,45 +3255,33 @@
         <v>37</v>
       </c>
       <c r="I37" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M37" t="s">
-        <v>516</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D38" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G38">
         <v>22</v>
@@ -3746,45 +3290,33 @@
         <v>37</v>
       </c>
       <c r="I38" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M38" t="s">
-        <v>516</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D39" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G39">
         <v>23</v>
@@ -3793,45 +3325,33 @@
         <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J39" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M39" t="s">
-        <v>516</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D40" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G40">
         <v>23</v>
@@ -3840,45 +3360,33 @@
         <v>38</v>
       </c>
       <c r="I40" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J40" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M40" t="s">
-        <v>516</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D41" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G41">
         <v>23</v>
@@ -3887,45 +3395,33 @@
         <v>38</v>
       </c>
       <c r="I41" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J41" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M41" t="s">
-        <v>516</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D42" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G42">
         <v>23</v>
@@ -3934,45 +3430,33 @@
         <v>38</v>
       </c>
       <c r="I42" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J42" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M42" t="s">
-        <v>516</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D43" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G43">
         <v>23</v>
@@ -3981,45 +3465,33 @@
         <v>38</v>
       </c>
       <c r="I43" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J43" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M43" t="s">
-        <v>516</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D44" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G44">
         <v>24</v>
@@ -4028,45 +3500,33 @@
         <v>51</v>
       </c>
       <c r="I44" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="J44" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M44" t="s">
-        <v>517</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D45" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G45">
         <v>24</v>
@@ -4075,45 +3535,33 @@
         <v>51</v>
       </c>
       <c r="I45" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="J45" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M45" t="s">
-        <v>517</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C46" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D46" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G46">
         <v>24</v>
@@ -4122,45 +3570,33 @@
         <v>51</v>
       </c>
       <c r="I46" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="J46" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M46" t="s">
-        <v>517</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C47" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D47" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G47">
         <v>24</v>
@@ -4169,45 +3605,33 @@
         <v>51</v>
       </c>
       <c r="I47" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="J47" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M47" t="s">
-        <v>517</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D48" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G48">
         <v>26</v>
@@ -4216,45 +3640,33 @@
         <v>55</v>
       </c>
       <c r="I48" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J48" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="M48" t="s">
-        <v>516</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D49" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G49">
         <v>27</v>
@@ -4263,45 +3675,33 @@
         <v>56</v>
       </c>
       <c r="I49" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J49" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M49" t="s">
-        <v>516</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D50" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G50">
         <v>27</v>
@@ -4310,45 +3710,33 @@
         <v>56</v>
       </c>
       <c r="I50" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J50" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M50" t="s">
-        <v>516</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D51" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G51">
         <v>28</v>
@@ -4357,45 +3745,33 @@
         <v>57</v>
       </c>
       <c r="I51" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J51" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M51" t="s">
-        <v>516</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D52" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G52">
         <v>28</v>
@@ -4404,45 +3780,33 @@
         <v>57</v>
       </c>
       <c r="I52" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J52" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M52" t="s">
-        <v>516</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D53" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G53">
         <v>29</v>
@@ -4451,45 +3815,33 @@
         <v>58</v>
       </c>
       <c r="I53" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J53" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M53" t="s">
-        <v>516</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D54" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G54">
         <v>29</v>
@@ -4498,45 +3850,33 @@
         <v>58</v>
       </c>
       <c r="I54" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J54" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M54" t="s">
-        <v>516</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D55" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G55">
         <v>29</v>
@@ -4545,45 +3885,33 @@
         <v>58</v>
       </c>
       <c r="I55" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J55" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M55" t="s">
-        <v>516</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D56" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G56">
         <v>29</v>
@@ -4592,45 +3920,33 @@
         <v>58</v>
       </c>
       <c r="I56" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J56" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M56" t="s">
-        <v>516</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D57" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G57">
         <v>29</v>
@@ -4639,45 +3955,33 @@
         <v>58</v>
       </c>
       <c r="I57" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J57" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M57" t="s">
-        <v>516</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D58" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G58">
         <v>29</v>
@@ -4686,45 +3990,33 @@
         <v>58</v>
       </c>
       <c r="I58" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J58" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M58" t="s">
-        <v>516</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D59" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G59">
         <v>30</v>
@@ -4733,45 +4025,33 @@
         <v>59</v>
       </c>
       <c r="I59" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J59" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M59" t="s">
-        <v>516</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C60" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D60" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G60">
         <v>30</v>
@@ -4780,45 +4060,33 @@
         <v>59</v>
       </c>
       <c r="I60" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J60" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M60" t="s">
-        <v>516</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C61" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D61" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G61">
         <v>30</v>
@@ -4827,45 +4095,33 @@
         <v>59</v>
       </c>
       <c r="I61" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J61" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M61" t="s">
-        <v>516</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C62" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D62" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G62">
         <v>30</v>
@@ -4874,45 +4130,33 @@
         <v>59</v>
       </c>
       <c r="I62" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J62" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M62" t="s">
-        <v>516</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D63" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G63">
         <v>30</v>
@@ -4921,45 +4165,33 @@
         <v>59</v>
       </c>
       <c r="I63" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J63" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M63" t="s">
-        <v>516</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C64" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D64" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G64">
         <v>30</v>
@@ -4968,45 +4200,33 @@
         <v>59</v>
       </c>
       <c r="I64" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J64" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M64" t="s">
-        <v>516</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C65" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D65" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G65">
         <v>31</v>
@@ -5015,45 +4235,33 @@
         <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="J65" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M65" t="s">
-        <v>516</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C66" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D66" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G66">
         <v>32</v>
@@ -5062,45 +4270,33 @@
         <v>61</v>
       </c>
       <c r="I66" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J66" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M66" t="s">
-        <v>516</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C67" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D67" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G67">
         <v>32</v>
@@ -5109,45 +4305,33 @@
         <v>61</v>
       </c>
       <c r="I67" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J67" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M67" t="s">
-        <v>516</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C68" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D68" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G68">
         <v>32</v>
@@ -5156,45 +4340,33 @@
         <v>61</v>
       </c>
       <c r="I68" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J68" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M68" t="s">
-        <v>516</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C69" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D69" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G69">
         <v>33</v>
@@ -5203,45 +4375,33 @@
         <v>63</v>
       </c>
       <c r="I69" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J69" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M69" t="s">
-        <v>516</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C70" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D70" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G70">
         <v>33</v>
@@ -5250,45 +4410,33 @@
         <v>63</v>
       </c>
       <c r="I70" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J70" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M70" t="s">
-        <v>516</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D71" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G71">
         <v>33</v>
@@ -5297,45 +4445,33 @@
         <v>63</v>
       </c>
       <c r="I71" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J71" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M71" t="s">
-        <v>516</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C72" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D72" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G72">
         <v>33</v>
@@ -5344,45 +4480,33 @@
         <v>63</v>
       </c>
       <c r="I72" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J72" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M72" t="s">
-        <v>516</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C73" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D73" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G73">
         <v>34</v>
@@ -5391,45 +4515,33 @@
         <v>64</v>
       </c>
       <c r="I73" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="J73" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M73" t="s">
-        <v>516</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C74" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D74" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G74">
         <v>34</v>
@@ -5438,45 +4550,33 @@
         <v>64</v>
       </c>
       <c r="I74" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="J74" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M74" t="s">
-        <v>516</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D75" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G75">
         <v>35</v>
@@ -5485,45 +4585,33 @@
         <v>75</v>
       </c>
       <c r="I75" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J75" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="M75" t="s">
-        <v>516</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C76" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D76" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G76">
         <v>35</v>
@@ -5532,45 +4620,33 @@
         <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J76" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="M76" t="s">
-        <v>516</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C77" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D77" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G77">
         <v>36</v>
@@ -5579,45 +4655,33 @@
         <v>77</v>
       </c>
       <c r="I77" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="J77" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M77" t="s">
-        <v>516</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D78" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G78">
         <v>36</v>
@@ -5626,45 +4690,33 @@
         <v>77</v>
       </c>
       <c r="I78" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="J78" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M78" t="s">
-        <v>516</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C79" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D79" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G79">
         <v>37</v>
@@ -5673,45 +4725,33 @@
         <v>78</v>
       </c>
       <c r="I79" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J79" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M79" t="s">
-        <v>516</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D80" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G80">
         <v>37</v>
@@ -5720,45 +4760,33 @@
         <v>78</v>
       </c>
       <c r="I80" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J80" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M80" t="s">
-        <v>516</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D81" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G81">
         <v>38</v>
@@ -5767,45 +4795,33 @@
         <v>80</v>
       </c>
       <c r="I81" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="J81" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M81" t="s">
-        <v>516</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C82" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D82" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G82">
         <v>39</v>
@@ -5814,45 +4830,33 @@
         <v>81</v>
       </c>
       <c r="I82" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="J82" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M82" t="s">
-        <v>516</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D83" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G83">
         <v>40</v>
@@ -5861,45 +4865,33 @@
         <v>82</v>
       </c>
       <c r="I83" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J83" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="M83" t="s">
-        <v>516</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C84" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D84" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G84">
         <v>41</v>
@@ -5908,45 +4900,33 @@
         <v>83</v>
       </c>
       <c r="I84" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J84" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="M84" t="s">
-        <v>516</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C85" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D85" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G85">
         <v>42</v>
@@ -5955,45 +4935,33 @@
         <v>84</v>
       </c>
       <c r="I85" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J85" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M85" t="s">
-        <v>516</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C86" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D86" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G86">
         <v>42</v>
@@ -6002,45 +4970,33 @@
         <v>84</v>
       </c>
       <c r="I86" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J86" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M86" t="s">
-        <v>516</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C87" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D87" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G87">
         <v>44</v>
@@ -6049,45 +5005,33 @@
         <v>87</v>
       </c>
       <c r="I87" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J87" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M87" t="s">
-        <v>516</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D88" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G88">
         <v>44</v>
@@ -6096,45 +5040,33 @@
         <v>87</v>
       </c>
       <c r="I88" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J88" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M88" t="s">
-        <v>516</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-      <c r="S88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C89" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D89" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E89">
         <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G89">
         <v>45</v>
@@ -6143,45 +5075,33 @@
         <v>88</v>
       </c>
       <c r="I89" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J89" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M89" t="s">
-        <v>517</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D90" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E90">
         <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G90">
         <v>45</v>
@@ -6190,45 +5110,33 @@
         <v>88</v>
       </c>
       <c r="I90" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J90" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M90" t="s">
-        <v>517</v>
-      </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C91" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D91" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E91">
         <v>90</v>
       </c>
       <c r="F91" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G91">
         <v>45</v>
@@ -6237,45 +5145,33 @@
         <v>88</v>
       </c>
       <c r="I91" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J91" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M91" t="s">
-        <v>517</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-      <c r="S91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D92" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E92">
         <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G92">
         <v>45</v>
@@ -6284,45 +5180,33 @@
         <v>88</v>
       </c>
       <c r="I92" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J92" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M92" t="s">
-        <v>517</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="S92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C93" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D93" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E93">
         <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G93">
         <v>45</v>
@@ -6331,45 +5215,33 @@
         <v>88</v>
       </c>
       <c r="I93" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J93" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M93" t="s">
-        <v>517</v>
-      </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-      <c r="S93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C94" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D94" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E94">
         <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G94">
         <v>45</v>
@@ -6378,45 +5250,33 @@
         <v>88</v>
       </c>
       <c r="I94" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J94" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M94" t="s">
-        <v>517</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-      <c r="S94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C95" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D95" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E95">
         <v>94</v>
       </c>
       <c r="F95" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G95">
         <v>46</v>
@@ -6425,45 +5285,33 @@
         <v>90</v>
       </c>
       <c r="I95" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J95" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M95" t="s">
-        <v>516</v>
-      </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-      <c r="S95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C96" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D96" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E96">
         <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G96">
         <v>46</v>
@@ -6472,45 +5320,33 @@
         <v>90</v>
       </c>
       <c r="I96" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J96" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M96" t="s">
-        <v>516</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-      <c r="S96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C97" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D97" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E97">
         <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G97">
         <v>48</v>
@@ -6519,45 +5355,33 @@
         <v>92</v>
       </c>
       <c r="I97" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J97" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="M97" t="s">
-        <v>516</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-      <c r="S97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C98" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D98" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E98">
         <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G98">
         <v>49</v>
@@ -6566,45 +5390,33 @@
         <v>93</v>
       </c>
       <c r="I98" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="J98" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M98" t="s">
-        <v>516</v>
-      </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
-      <c r="S98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C99" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D99" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E99">
         <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G99">
         <v>50</v>
@@ -6613,45 +5425,33 @@
         <v>94</v>
       </c>
       <c r="I99" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J99" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M99" t="s">
-        <v>516</v>
-      </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
-      <c r="S99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C100" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D100" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E100">
         <v>99</v>
       </c>
       <c r="F100" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G100">
         <v>51</v>
@@ -6660,45 +5460,33 @@
         <v>95</v>
       </c>
       <c r="I100" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J100" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M100" t="s">
-        <v>516</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-      <c r="S100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C101" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D101" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E101">
         <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G101">
         <v>51</v>
@@ -6707,45 +5495,33 @@
         <v>95</v>
       </c>
       <c r="I101" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J101" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M101" t="s">
-        <v>516</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
-      <c r="S101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C102" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D102" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G102">
         <v>51</v>
@@ -6754,45 +5530,33 @@
         <v>95</v>
       </c>
       <c r="I102" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J102" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M102" t="s">
-        <v>516</v>
-      </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>0</v>
-      </c>
-      <c r="S102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C103" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D103" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E103">
         <v>102</v>
       </c>
       <c r="F103" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G103">
         <v>53</v>
@@ -6801,45 +5565,33 @@
         <v>98</v>
       </c>
       <c r="I103" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J103" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="M103" t="s">
-        <v>517</v>
-      </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
-      <c r="S103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C104" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D104" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G104">
         <v>54</v>
@@ -6848,45 +5600,33 @@
         <v>99</v>
       </c>
       <c r="I104" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="J104" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M104" t="s">
-        <v>516</v>
-      </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>0</v>
-      </c>
-      <c r="S104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B105" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C105" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D105" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E105">
         <v>104</v>
       </c>
       <c r="F105" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G105">
         <v>56</v>
@@ -6895,45 +5635,33 @@
         <v>101</v>
       </c>
       <c r="I105" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J105" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="M105" t="s">
-        <v>516</v>
-      </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>0</v>
-      </c>
-      <c r="S105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C106" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D106" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G106">
         <v>57</v>
@@ -6942,45 +5670,33 @@
         <v>102</v>
       </c>
       <c r="I106" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J106" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M106" t="s">
-        <v>516</v>
-      </c>
-      <c r="P106">
-        <v>0</v>
-      </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-      <c r="R106">
-        <v>0</v>
-      </c>
-      <c r="S106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C107" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D107" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E107">
         <v>106</v>
       </c>
       <c r="F107" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G107">
         <v>57</v>
@@ -6989,45 +5705,33 @@
         <v>102</v>
       </c>
       <c r="I107" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J107" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M107" t="s">
-        <v>516</v>
-      </c>
-      <c r="P107">
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="R107">
-        <v>0</v>
-      </c>
-      <c r="S107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B108" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C108" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D108" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E108">
         <v>107</v>
       </c>
       <c r="F108" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G108">
         <v>57</v>
@@ -7036,45 +5740,33 @@
         <v>102</v>
       </c>
       <c r="I108" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J108" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M108" t="s">
-        <v>516</v>
-      </c>
-      <c r="P108">
-        <v>0</v>
-      </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
-      <c r="R108">
-        <v>0</v>
-      </c>
-      <c r="S108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B109" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C109" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D109" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E109">
         <v>108</v>
       </c>
       <c r="F109" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G109">
         <v>58</v>
@@ -7083,45 +5775,33 @@
         <v>103</v>
       </c>
       <c r="I109" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J109" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M109" t="s">
-        <v>516</v>
-      </c>
-      <c r="P109">
-        <v>0</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
-        <v>0</v>
-      </c>
-      <c r="S109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C110" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D110" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E110">
         <v>109</v>
       </c>
       <c r="F110" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G110">
         <v>58</v>
@@ -7130,45 +5810,33 @@
         <v>103</v>
       </c>
       <c r="I110" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J110" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M110" t="s">
-        <v>516</v>
-      </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
-        <v>0</v>
-      </c>
-      <c r="S110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C111" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D111" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E111">
         <v>110</v>
       </c>
       <c r="F111" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G111">
         <v>58</v>
@@ -7177,45 +5845,33 @@
         <v>103</v>
       </c>
       <c r="I111" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J111" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M111" t="s">
-        <v>516</v>
-      </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-      <c r="Q111">
-        <v>0</v>
-      </c>
-      <c r="R111">
-        <v>0</v>
-      </c>
-      <c r="S111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C112" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D112" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E112">
         <v>111</v>
       </c>
       <c r="F112" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G112">
         <v>60</v>
@@ -7224,45 +5880,33 @@
         <v>105</v>
       </c>
       <c r="I112" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J112" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="M112" t="s">
-        <v>516</v>
-      </c>
-      <c r="P112">
-        <v>0</v>
-      </c>
-      <c r="Q112">
-        <v>0</v>
-      </c>
-      <c r="R112">
-        <v>0</v>
-      </c>
-      <c r="S112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C113" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D113" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E113">
         <v>112</v>
       </c>
       <c r="F113" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G113">
         <v>61</v>
@@ -7271,45 +5915,33 @@
         <v>106</v>
       </c>
       <c r="I113" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J113" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="M113" t="s">
-        <v>516</v>
-      </c>
-      <c r="P113">
-        <v>0</v>
-      </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-      <c r="R113">
-        <v>0</v>
-      </c>
-      <c r="S113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C114" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D114" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E114">
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G114">
         <v>65</v>
@@ -7318,45 +5950,33 @@
         <v>111</v>
       </c>
       <c r="I114" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J114" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M114" t="s">
-        <v>516</v>
-      </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>0</v>
-      </c>
-      <c r="S114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C115" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D115" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E115">
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G115">
         <v>66</v>
@@ -7365,45 +5985,33 @@
         <v>113</v>
       </c>
       <c r="I115" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="J115" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M115" t="s">
-        <v>516</v>
-      </c>
-      <c r="P115">
-        <v>0</v>
-      </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-      <c r="R115">
-        <v>0</v>
-      </c>
-      <c r="S115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C116" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D116" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G116">
         <v>68</v>
@@ -7412,45 +6020,33 @@
         <v>115</v>
       </c>
       <c r="I116" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J116" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M116" t="s">
-        <v>517</v>
-      </c>
-      <c r="P116">
-        <v>0</v>
-      </c>
-      <c r="Q116">
-        <v>0</v>
-      </c>
-      <c r="R116">
-        <v>0</v>
-      </c>
-      <c r="S116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D117" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G117">
         <v>70</v>
@@ -7459,45 +6055,33 @@
         <v>118</v>
       </c>
       <c r="I117" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J117" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M117" t="s">
-        <v>516</v>
-      </c>
-      <c r="P117">
-        <v>0</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <v>0</v>
-      </c>
-      <c r="S117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C118" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D118" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E118">
         <v>117</v>
       </c>
       <c r="F118" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G118">
         <v>71</v>
@@ -7506,45 +6090,33 @@
         <v>119</v>
       </c>
       <c r="I118" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="J118" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M118" t="s">
-        <v>516</v>
-      </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>0</v>
-      </c>
-      <c r="S118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D119" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E119">
         <v>118</v>
       </c>
       <c r="F119" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G119">
         <v>71</v>
@@ -7553,25 +6125,13 @@
         <v>119</v>
       </c>
       <c r="I119" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="J119" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M119" t="s">
-        <v>516</v>
-      </c>
-      <c r="P119">
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <v>0</v>
-      </c>
-      <c r="R119">
-        <v>0</v>
-      </c>
-      <c r="S119">
-        <v>0</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p31.xlsx
+++ b/files/separadas/repeat_p31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="515">
   <si>
     <t>p31_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>OAP-MEM22-0027</t>
@@ -1954,13 +1957,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O119"/>
+  <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2006,25 +2009,28 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2033,33 +2039,36 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>513</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2068,33 +2077,36 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>513</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -2103,33 +2115,36 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>513</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -2138,33 +2153,36 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>513</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2173,33 +2191,36 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M6" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>513</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2208,33 +2229,36 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M7" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>513</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -2243,33 +2267,36 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>513</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2278,33 +2305,36 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J9" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M9" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>513</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -2313,33 +2343,36 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J10" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="M10" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>513</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -2348,33 +2381,36 @@
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J11" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>513</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -2383,33 +2419,36 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M12" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>513</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -2418,33 +2457,36 @@
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J13" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M13" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>513</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -2453,33 +2495,36 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M14" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>513</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -2488,33 +2533,36 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M15" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>513</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D16" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -2523,33 +2571,36 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M16" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D17" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G17">
         <v>11</v>
@@ -2558,33 +2609,36 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M17" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D18" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G18">
         <v>11</v>
@@ -2593,33 +2647,36 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M18" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G19">
         <v>12</v>
@@ -2628,33 +2685,36 @@
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J19" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M19" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G20">
         <v>13</v>
@@ -2663,33 +2723,36 @@
         <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J20" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M20" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G21">
         <v>14</v>
@@ -2698,33 +2761,36 @@
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J21" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M21" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D22" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G22">
         <v>14</v>
@@ -2733,33 +2799,36 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J22" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M22" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D23" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G23">
         <v>15</v>
@@ -2768,33 +2837,36 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J23" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M23" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G24">
         <v>15</v>
@@ -2803,30 +2875,33 @@
         <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J24" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M24" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="B25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G25">
         <v>15</v>
@@ -2835,33 +2910,36 @@
         <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J25" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M25" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D26" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G26">
         <v>16</v>
@@ -2870,33 +2948,36 @@
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J26" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M26" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G27">
         <v>17</v>
@@ -2905,33 +2986,36 @@
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J27" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="M27" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G28">
         <v>18</v>
@@ -2940,33 +3024,36 @@
         <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J28" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="M28" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D29" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G29">
         <v>19</v>
@@ -2975,33 +3062,36 @@
         <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J29" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M29" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D30" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G30">
         <v>19</v>
@@ -3010,33 +3100,36 @@
         <v>30</v>
       </c>
       <c r="I30" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J30" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M30" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G31">
         <v>20</v>
@@ -3045,33 +3138,36 @@
         <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J31" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M31" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D32" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G32">
         <v>21</v>
@@ -3080,33 +3176,36 @@
         <v>34</v>
       </c>
       <c r="I32" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J32" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M32" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D33" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G33">
         <v>22</v>
@@ -3115,33 +3214,36 @@
         <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J33" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M33" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G34">
         <v>22</v>
@@ -3150,33 +3252,36 @@
         <v>37</v>
       </c>
       <c r="I34" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J34" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M34" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D35" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G35">
         <v>22</v>
@@ -3185,33 +3290,36 @@
         <v>37</v>
       </c>
       <c r="I35" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J35" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M35" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D36" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G36">
         <v>22</v>
@@ -3220,33 +3328,36 @@
         <v>37</v>
       </c>
       <c r="I36" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J36" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M36" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D37" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G37">
         <v>22</v>
@@ -3255,33 +3366,36 @@
         <v>37</v>
       </c>
       <c r="I37" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M37" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D38" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G38">
         <v>22</v>
@@ -3290,33 +3404,36 @@
         <v>37</v>
       </c>
       <c r="I38" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M38" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D39" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G39">
         <v>23</v>
@@ -3325,33 +3442,36 @@
         <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J39" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M39" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D40" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G40">
         <v>23</v>
@@ -3360,33 +3480,36 @@
         <v>38</v>
       </c>
       <c r="I40" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J40" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M40" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D41" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G41">
         <v>23</v>
@@ -3395,33 +3518,36 @@
         <v>38</v>
       </c>
       <c r="I41" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J41" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M41" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G42">
         <v>23</v>
@@ -3430,33 +3556,36 @@
         <v>38</v>
       </c>
       <c r="I42" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J42" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M42" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D43" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G43">
         <v>23</v>
@@ -3465,33 +3594,36 @@
         <v>38</v>
       </c>
       <c r="I43" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J43" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M43" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D44" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G44">
         <v>24</v>
@@ -3500,33 +3632,36 @@
         <v>51</v>
       </c>
       <c r="I44" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J44" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M44" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D45" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G45">
         <v>24</v>
@@ -3535,33 +3670,36 @@
         <v>51</v>
       </c>
       <c r="I45" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J45" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M45" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D46" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G46">
         <v>24</v>
@@ -3570,33 +3708,36 @@
         <v>51</v>
       </c>
       <c r="I46" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J46" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M46" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D47" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G47">
         <v>24</v>
@@ -3605,33 +3746,36 @@
         <v>51</v>
       </c>
       <c r="I47" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J47" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M47" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D48" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G48">
         <v>26</v>
@@ -3640,33 +3784,36 @@
         <v>55</v>
       </c>
       <c r="I48" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J48" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="M48" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D49" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G49">
         <v>27</v>
@@ -3675,33 +3822,36 @@
         <v>56</v>
       </c>
       <c r="I49" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J49" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M49" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D50" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G50">
         <v>27</v>
@@ -3710,33 +3860,36 @@
         <v>56</v>
       </c>
       <c r="I50" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J50" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M50" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D51" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G51">
         <v>28</v>
@@ -3745,33 +3898,36 @@
         <v>57</v>
       </c>
       <c r="I51" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J51" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M51" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C52" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D52" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G52">
         <v>28</v>
@@ -3780,33 +3936,36 @@
         <v>57</v>
       </c>
       <c r="I52" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J52" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M52" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D53" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G53">
         <v>29</v>
@@ -3815,33 +3974,36 @@
         <v>58</v>
       </c>
       <c r="I53" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J53" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M53" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D54" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G54">
         <v>29</v>
@@ -3850,33 +4012,36 @@
         <v>58</v>
       </c>
       <c r="I54" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J54" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M54" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D55" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G55">
         <v>29</v>
@@ -3885,33 +4050,36 @@
         <v>58</v>
       </c>
       <c r="I55" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J55" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M55" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D56" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G56">
         <v>29</v>
@@ -3920,33 +4088,36 @@
         <v>58</v>
       </c>
       <c r="I56" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J56" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M56" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D57" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G57">
         <v>29</v>
@@ -3955,33 +4126,36 @@
         <v>58</v>
       </c>
       <c r="I57" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J57" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M57" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D58" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G58">
         <v>29</v>
@@ -3990,33 +4164,36 @@
         <v>58</v>
       </c>
       <c r="I58" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J58" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M58" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C59" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D59" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G59">
         <v>30</v>
@@ -4025,33 +4202,36 @@
         <v>59</v>
       </c>
       <c r="I59" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J59" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M59" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C60" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D60" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G60">
         <v>30</v>
@@ -4060,33 +4240,36 @@
         <v>59</v>
       </c>
       <c r="I60" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J60" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M60" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D61" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G61">
         <v>30</v>
@@ -4095,33 +4278,36 @@
         <v>59</v>
       </c>
       <c r="I61" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J61" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M61" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C62" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D62" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G62">
         <v>30</v>
@@ -4130,33 +4316,36 @@
         <v>59</v>
       </c>
       <c r="I62" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J62" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M62" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D63" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G63">
         <v>30</v>
@@ -4165,33 +4354,36 @@
         <v>59</v>
       </c>
       <c r="I63" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J63" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M63" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D64" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G64">
         <v>30</v>
@@ -4200,33 +4392,36 @@
         <v>59</v>
       </c>
       <c r="I64" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J64" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M64" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D65" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G65">
         <v>31</v>
@@ -4235,33 +4430,36 @@
         <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J65" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M65" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D66" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G66">
         <v>32</v>
@@ -4270,33 +4468,36 @@
         <v>61</v>
       </c>
       <c r="I66" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J66" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M66" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C67" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D67" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G67">
         <v>32</v>
@@ -4305,33 +4506,36 @@
         <v>61</v>
       </c>
       <c r="I67" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J67" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M67" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D68" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G68">
         <v>32</v>
@@ -4340,33 +4544,36 @@
         <v>61</v>
       </c>
       <c r="I68" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J68" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M68" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G69">
         <v>33</v>
@@ -4375,33 +4582,36 @@
         <v>63</v>
       </c>
       <c r="I69" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J69" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M69" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C70" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D70" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G70">
         <v>33</v>
@@ -4410,33 +4620,36 @@
         <v>63</v>
       </c>
       <c r="I70" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J70" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M70" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C71" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D71" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G71">
         <v>33</v>
@@ -4445,33 +4658,36 @@
         <v>63</v>
       </c>
       <c r="I71" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J71" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M71" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D72" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G72">
         <v>33</v>
@@ -4480,33 +4696,36 @@
         <v>63</v>
       </c>
       <c r="I72" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J72" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M72" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C73" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D73" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G73">
         <v>34</v>
@@ -4515,33 +4734,36 @@
         <v>64</v>
       </c>
       <c r="I73" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J73" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M73" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C74" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D74" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G74">
         <v>34</v>
@@ -4550,33 +4772,36 @@
         <v>64</v>
       </c>
       <c r="I74" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J74" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M74" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D75" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G75">
         <v>35</v>
@@ -4585,33 +4810,36 @@
         <v>75</v>
       </c>
       <c r="I75" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J75" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="M75" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C76" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D76" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G76">
         <v>35</v>
@@ -4620,33 +4848,36 @@
         <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J76" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="M76" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C77" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D77" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G77">
         <v>36</v>
@@ -4655,33 +4886,36 @@
         <v>77</v>
       </c>
       <c r="I77" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J77" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M77" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C78" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D78" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G78">
         <v>36</v>
@@ -4690,33 +4924,36 @@
         <v>77</v>
       </c>
       <c r="I78" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J78" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M78" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D79" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G79">
         <v>37</v>
@@ -4725,33 +4962,36 @@
         <v>78</v>
       </c>
       <c r="I79" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J79" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M79" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C80" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D80" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G80">
         <v>37</v>
@@ -4760,33 +5000,36 @@
         <v>78</v>
       </c>
       <c r="I80" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J80" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M80" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D81" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G81">
         <v>38</v>
@@ -4795,33 +5038,36 @@
         <v>80</v>
       </c>
       <c r="I81" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J81" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M81" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G82">
         <v>39</v>
@@ -4830,33 +5076,36 @@
         <v>81</v>
       </c>
       <c r="I82" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J82" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M82" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C83" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D83" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G83">
         <v>40</v>
@@ -4865,33 +5114,36 @@
         <v>82</v>
       </c>
       <c r="I83" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J83" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="M83" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C84" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D84" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G84">
         <v>41</v>
@@ -4900,33 +5152,36 @@
         <v>83</v>
       </c>
       <c r="I84" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J84" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="M84" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D85" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G85">
         <v>42</v>
@@ -4935,33 +5190,36 @@
         <v>84</v>
       </c>
       <c r="I85" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J85" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M85" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D86" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G86">
         <v>42</v>
@@ -4970,33 +5228,36 @@
         <v>84</v>
       </c>
       <c r="I86" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J86" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M86" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C87" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D87" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G87">
         <v>44</v>
@@ -5005,33 +5266,36 @@
         <v>87</v>
       </c>
       <c r="I87" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J87" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M87" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D88" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G88">
         <v>44</v>
@@ -5040,33 +5304,36 @@
         <v>87</v>
       </c>
       <c r="I88" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J88" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M88" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C89" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D89" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E89">
         <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G89">
         <v>45</v>
@@ -5075,33 +5342,36 @@
         <v>88</v>
       </c>
       <c r="I89" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J89" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M89" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C90" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D90" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E90">
         <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G90">
         <v>45</v>
@@ -5110,33 +5380,36 @@
         <v>88</v>
       </c>
       <c r="I90" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J90" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M90" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D91" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E91">
         <v>90</v>
       </c>
       <c r="F91" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G91">
         <v>45</v>
@@ -5145,33 +5418,36 @@
         <v>88</v>
       </c>
       <c r="I91" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J91" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M91" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C92" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D92" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E92">
         <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G92">
         <v>45</v>
@@ -5180,33 +5456,36 @@
         <v>88</v>
       </c>
       <c r="I92" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J92" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M92" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C93" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D93" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E93">
         <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G93">
         <v>45</v>
@@ -5215,33 +5494,36 @@
         <v>88</v>
       </c>
       <c r="I93" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J93" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M93" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C94" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D94" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E94">
         <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G94">
         <v>45</v>
@@ -5250,33 +5532,36 @@
         <v>88</v>
       </c>
       <c r="I94" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J94" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M94" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C95" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D95" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E95">
         <v>94</v>
       </c>
       <c r="F95" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G95">
         <v>46</v>
@@ -5285,33 +5570,36 @@
         <v>90</v>
       </c>
       <c r="I95" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J95" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M95" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C96" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D96" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E96">
         <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G96">
         <v>46</v>
@@ -5320,33 +5608,36 @@
         <v>90</v>
       </c>
       <c r="I96" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J96" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M96" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C97" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D97" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E97">
         <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G97">
         <v>48</v>
@@ -5355,33 +5646,36 @@
         <v>92</v>
       </c>
       <c r="I97" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J97" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="M97" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C98" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D98" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E98">
         <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G98">
         <v>49</v>
@@ -5390,33 +5684,36 @@
         <v>93</v>
       </c>
       <c r="I98" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J98" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M98" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C99" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D99" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E99">
         <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G99">
         <v>50</v>
@@ -5425,33 +5722,36 @@
         <v>94</v>
       </c>
       <c r="I99" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J99" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M99" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C100" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D100" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E100">
         <v>99</v>
       </c>
       <c r="F100" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G100">
         <v>51</v>
@@ -5460,33 +5760,36 @@
         <v>95</v>
       </c>
       <c r="I100" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J100" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M100" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C101" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D101" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E101">
         <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G101">
         <v>51</v>
@@ -5495,33 +5798,36 @@
         <v>95</v>
       </c>
       <c r="I101" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J101" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M101" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C102" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D102" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G102">
         <v>51</v>
@@ -5530,33 +5836,36 @@
         <v>95</v>
       </c>
       <c r="I102" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J102" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M102" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C103" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D103" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E103">
         <v>102</v>
       </c>
       <c r="F103" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G103">
         <v>53</v>
@@ -5565,33 +5874,36 @@
         <v>98</v>
       </c>
       <c r="I103" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J103" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="M103" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D104" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G104">
         <v>54</v>
@@ -5600,33 +5912,36 @@
         <v>99</v>
       </c>
       <c r="I104" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J104" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M104" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C105" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D105" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E105">
         <v>104</v>
       </c>
       <c r="F105" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G105">
         <v>56</v>
@@ -5635,33 +5950,36 @@
         <v>101</v>
       </c>
       <c r="I105" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J105" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="M105" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C106" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D106" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G106">
         <v>57</v>
@@ -5670,33 +5988,36 @@
         <v>102</v>
       </c>
       <c r="I106" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J106" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M106" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C107" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D107" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E107">
         <v>106</v>
       </c>
       <c r="F107" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G107">
         <v>57</v>
@@ -5705,33 +6026,36 @@
         <v>102</v>
       </c>
       <c r="I107" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J107" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M107" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C108" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D108" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E108">
         <v>107</v>
       </c>
       <c r="F108" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G108">
         <v>57</v>
@@ -5740,33 +6064,36 @@
         <v>102</v>
       </c>
       <c r="I108" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J108" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M108" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B109" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C109" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D109" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E109">
         <v>108</v>
       </c>
       <c r="F109" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G109">
         <v>58</v>
@@ -5775,33 +6102,36 @@
         <v>103</v>
       </c>
       <c r="I109" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J109" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M109" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C110" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D110" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E110">
         <v>109</v>
       </c>
       <c r="F110" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G110">
         <v>58</v>
@@ -5810,33 +6140,36 @@
         <v>103</v>
       </c>
       <c r="I110" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J110" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M110" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C111" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D111" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E111">
         <v>110</v>
       </c>
       <c r="F111" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G111">
         <v>58</v>
@@ -5845,33 +6178,36 @@
         <v>103</v>
       </c>
       <c r="I111" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J111" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M111" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C112" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D112" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E112">
         <v>111</v>
       </c>
       <c r="F112" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G112">
         <v>60</v>
@@ -5880,33 +6216,36 @@
         <v>105</v>
       </c>
       <c r="I112" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J112" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="M112" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D113" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E113">
         <v>112</v>
       </c>
       <c r="F113" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G113">
         <v>61</v>
@@ -5915,33 +6254,36 @@
         <v>106</v>
       </c>
       <c r="I113" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J113" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="M113" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D114" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E114">
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G114">
         <v>65</v>
@@ -5950,33 +6292,36 @@
         <v>111</v>
       </c>
       <c r="I114" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J114" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M114" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C115" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D115" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E115">
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G115">
         <v>66</v>
@@ -5985,33 +6330,36 @@
         <v>113</v>
       </c>
       <c r="I115" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J115" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M115" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C116" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D116" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G116">
         <v>68</v>
@@ -6020,33 +6368,36 @@
         <v>115</v>
       </c>
       <c r="I116" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J116" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M116" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>514</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D117" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G117">
         <v>70</v>
@@ -6055,33 +6406,36 @@
         <v>118</v>
       </c>
       <c r="I117" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J117" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M117" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C118" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D118" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E118">
         <v>117</v>
       </c>
       <c r="F118" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G118">
         <v>71</v>
@@ -6090,33 +6444,36 @@
         <v>119</v>
       </c>
       <c r="I118" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J118" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M118" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>513</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C119" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D119" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E119">
         <v>118</v>
       </c>
       <c r="F119" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G119">
         <v>71</v>
@@ -6125,13 +6482,16 @@
         <v>119</v>
       </c>
       <c r="I119" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J119" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M119" t="s">
-        <v>512</v>
+        <v>513</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p31.xlsx
+++ b/files/separadas/repeat_p31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="516">
   <si>
     <t>p31_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1957,13 +1960,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P119"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2012,25 +2015,28 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2039,36 +2045,39 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2077,36 +2086,39 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -2115,36 +2127,39 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -2153,36 +2168,39 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2191,36 +2209,39 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2229,36 +2250,39 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -2267,36 +2291,39 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2305,36 +2332,39 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J9" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -2343,36 +2373,39 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J10" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="M10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -2381,36 +2414,39 @@
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J11" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M11" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -2419,36 +2455,39 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M12" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -2457,36 +2496,39 @@
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J13" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M13" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -2495,36 +2537,39 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -2533,36 +2578,39 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M15" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D16" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -2571,36 +2619,39 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M16" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G17">
         <v>11</v>
@@ -2609,36 +2660,39 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M17" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G18">
         <v>11</v>
@@ -2647,36 +2701,39 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G19">
         <v>12</v>
@@ -2685,36 +2742,39 @@
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J19" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M19" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G20">
         <v>13</v>
@@ -2723,36 +2783,39 @@
         <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J20" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G21">
         <v>14</v>
@@ -2761,36 +2824,39 @@
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J21" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M21" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D22" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G22">
         <v>14</v>
@@ -2799,36 +2865,39 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J22" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M22" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G23">
         <v>15</v>
@@ -2837,36 +2906,39 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J23" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M23" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G24">
         <v>15</v>
@@ -2875,33 +2947,36 @@
         <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J24" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M24" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="B25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D25" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G25">
         <v>15</v>
@@ -2910,36 +2985,39 @@
         <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J25" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M25" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D26" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G26">
         <v>16</v>
@@ -2948,36 +3026,39 @@
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J26" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M26" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D27" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G27">
         <v>17</v>
@@ -2986,36 +3067,39 @@
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J27" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="M27" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D28" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G28">
         <v>18</v>
@@ -3024,36 +3108,39 @@
         <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J28" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="M28" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G29">
         <v>19</v>
@@ -3062,36 +3149,39 @@
         <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J29" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M29" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D30" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G30">
         <v>19</v>
@@ -3100,36 +3190,39 @@
         <v>30</v>
       </c>
       <c r="I30" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J30" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M30" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D31" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G31">
         <v>20</v>
@@ -3138,36 +3231,39 @@
         <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J31" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M31" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D32" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G32">
         <v>21</v>
@@ -3176,36 +3272,39 @@
         <v>34</v>
       </c>
       <c r="I32" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J32" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M32" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D33" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G33">
         <v>22</v>
@@ -3214,36 +3313,39 @@
         <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J33" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M33" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D34" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G34">
         <v>22</v>
@@ -3252,36 +3354,39 @@
         <v>37</v>
       </c>
       <c r="I34" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J34" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M34" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D35" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G35">
         <v>22</v>
@@ -3290,36 +3395,39 @@
         <v>37</v>
       </c>
       <c r="I35" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J35" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M35" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D36" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G36">
         <v>22</v>
@@ -3328,36 +3436,39 @@
         <v>37</v>
       </c>
       <c r="I36" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J36" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M36" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D37" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G37">
         <v>22</v>
@@ -3366,36 +3477,39 @@
         <v>37</v>
       </c>
       <c r="I37" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M37" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D38" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G38">
         <v>22</v>
@@ -3404,36 +3518,39 @@
         <v>37</v>
       </c>
       <c r="I38" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M38" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D39" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G39">
         <v>23</v>
@@ -3442,36 +3559,39 @@
         <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J39" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M39" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D40" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G40">
         <v>23</v>
@@ -3480,36 +3600,39 @@
         <v>38</v>
       </c>
       <c r="I40" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J40" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M40" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D41" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G41">
         <v>23</v>
@@ -3518,36 +3641,39 @@
         <v>38</v>
       </c>
       <c r="I41" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J41" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M41" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D42" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G42">
         <v>23</v>
@@ -3556,36 +3682,39 @@
         <v>38</v>
       </c>
       <c r="I42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J42" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M42" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D43" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G43">
         <v>23</v>
@@ -3594,36 +3723,39 @@
         <v>38</v>
       </c>
       <c r="I43" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J43" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M43" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D44" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G44">
         <v>24</v>
@@ -3632,36 +3764,39 @@
         <v>51</v>
       </c>
       <c r="I44" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J44" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M44" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D45" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G45">
         <v>24</v>
@@ -3670,36 +3805,39 @@
         <v>51</v>
       </c>
       <c r="I45" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J45" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M45" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D46" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G46">
         <v>24</v>
@@ -3708,36 +3846,39 @@
         <v>51</v>
       </c>
       <c r="I46" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J46" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M46" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D47" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G47">
         <v>24</v>
@@ -3746,36 +3887,39 @@
         <v>51</v>
       </c>
       <c r="I47" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J47" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M47" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D48" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G48">
         <v>26</v>
@@ -3784,36 +3928,39 @@
         <v>55</v>
       </c>
       <c r="I48" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J48" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="M48" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D49" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G49">
         <v>27</v>
@@ -3822,36 +3969,39 @@
         <v>56</v>
       </c>
       <c r="I49" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J49" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M49" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D50" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G50">
         <v>27</v>
@@ -3860,36 +4010,39 @@
         <v>56</v>
       </c>
       <c r="I50" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J50" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M50" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C51" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D51" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G51">
         <v>28</v>
@@ -3898,36 +4051,39 @@
         <v>57</v>
       </c>
       <c r="I51" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J51" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M51" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C52" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D52" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G52">
         <v>28</v>
@@ -3936,36 +4092,39 @@
         <v>57</v>
       </c>
       <c r="I52" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J52" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M52" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C53" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D53" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G53">
         <v>29</v>
@@ -3974,36 +4133,39 @@
         <v>58</v>
       </c>
       <c r="I53" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J53" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M53" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C54" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D54" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G54">
         <v>29</v>
@@ -4012,36 +4174,39 @@
         <v>58</v>
       </c>
       <c r="I54" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J54" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M54" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C55" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D55" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G55">
         <v>29</v>
@@ -4050,36 +4215,39 @@
         <v>58</v>
       </c>
       <c r="I55" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J55" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M55" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D56" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G56">
         <v>29</v>
@@ -4088,36 +4256,39 @@
         <v>58</v>
       </c>
       <c r="I56" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J56" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M56" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C57" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D57" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G57">
         <v>29</v>
@@ -4126,36 +4297,39 @@
         <v>58</v>
       </c>
       <c r="I57" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J57" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M57" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C58" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D58" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G58">
         <v>29</v>
@@ -4164,36 +4338,39 @@
         <v>58</v>
       </c>
       <c r="I58" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J58" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M58" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C59" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D59" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G59">
         <v>30</v>
@@ -4202,36 +4379,39 @@
         <v>59</v>
       </c>
       <c r="I59" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J59" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M59" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D60" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G60">
         <v>30</v>
@@ -4240,36 +4420,39 @@
         <v>59</v>
       </c>
       <c r="I60" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J60" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M60" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D61" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G61">
         <v>30</v>
@@ -4278,36 +4461,39 @@
         <v>59</v>
       </c>
       <c r="I61" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J61" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M61" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D62" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G62">
         <v>30</v>
@@ -4316,36 +4502,39 @@
         <v>59</v>
       </c>
       <c r="I62" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J62" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M62" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D63" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G63">
         <v>30</v>
@@ -4354,36 +4543,39 @@
         <v>59</v>
       </c>
       <c r="I63" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J63" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M63" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D64" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G64">
         <v>30</v>
@@ -4392,36 +4584,39 @@
         <v>59</v>
       </c>
       <c r="I64" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J64" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M64" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D65" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G65">
         <v>31</v>
@@ -4430,36 +4625,39 @@
         <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J65" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M65" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D66" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G66">
         <v>32</v>
@@ -4468,36 +4666,39 @@
         <v>61</v>
       </c>
       <c r="I66" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J66" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M66" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D67" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G67">
         <v>32</v>
@@ -4506,36 +4707,39 @@
         <v>61</v>
       </c>
       <c r="I67" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J67" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M67" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C68" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D68" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G68">
         <v>32</v>
@@ -4544,36 +4748,39 @@
         <v>61</v>
       </c>
       <c r="I68" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J68" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M68" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C69" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D69" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G69">
         <v>33</v>
@@ -4582,36 +4789,39 @@
         <v>63</v>
       </c>
       <c r="I69" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J69" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M69" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C70" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D70" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G70">
         <v>33</v>
@@ -4620,36 +4830,39 @@
         <v>63</v>
       </c>
       <c r="I70" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J70" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M70" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C71" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D71" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G71">
         <v>33</v>
@@ -4658,36 +4871,39 @@
         <v>63</v>
       </c>
       <c r="I71" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J71" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M71" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C72" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D72" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G72">
         <v>33</v>
@@ -4696,36 +4912,39 @@
         <v>63</v>
       </c>
       <c r="I72" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J72" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M72" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D73" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G73">
         <v>34</v>
@@ -4734,36 +4953,39 @@
         <v>64</v>
       </c>
       <c r="I73" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J73" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M73" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C74" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D74" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G74">
         <v>34</v>
@@ -4772,36 +4994,39 @@
         <v>64</v>
       </c>
       <c r="I74" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J74" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M74" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D75" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G75">
         <v>35</v>
@@ -4810,36 +5035,39 @@
         <v>75</v>
       </c>
       <c r="I75" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J75" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="M75" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C76" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D76" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G76">
         <v>35</v>
@@ -4848,36 +5076,39 @@
         <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J76" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="M76" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C77" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D77" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G77">
         <v>36</v>
@@ -4886,36 +5117,39 @@
         <v>77</v>
       </c>
       <c r="I77" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J77" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M77" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C78" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D78" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G78">
         <v>36</v>
@@ -4924,36 +5158,39 @@
         <v>77</v>
       </c>
       <c r="I78" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J78" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M78" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C79" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D79" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G79">
         <v>37</v>
@@ -4962,36 +5199,39 @@
         <v>78</v>
       </c>
       <c r="I79" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J79" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M79" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C80" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D80" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G80">
         <v>37</v>
@@ -5000,36 +5240,39 @@
         <v>78</v>
       </c>
       <c r="I80" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J80" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M80" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C81" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D81" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G81">
         <v>38</v>
@@ -5038,36 +5281,39 @@
         <v>80</v>
       </c>
       <c r="I81" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J81" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M81" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G82">
         <v>39</v>
@@ -5076,36 +5322,39 @@
         <v>81</v>
       </c>
       <c r="I82" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J82" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M82" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C83" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D83" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G83">
         <v>40</v>
@@ -5114,36 +5363,39 @@
         <v>82</v>
       </c>
       <c r="I83" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J83" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="M83" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C84" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D84" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G84">
         <v>41</v>
@@ -5152,36 +5404,39 @@
         <v>83</v>
       </c>
       <c r="I84" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J84" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="M84" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D85" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G85">
         <v>42</v>
@@ -5190,36 +5445,39 @@
         <v>84</v>
       </c>
       <c r="I85" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J85" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M85" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D86" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G86">
         <v>42</v>
@@ -5228,36 +5486,39 @@
         <v>84</v>
       </c>
       <c r="I86" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J86" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M86" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D87" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G87">
         <v>44</v>
@@ -5266,36 +5527,39 @@
         <v>87</v>
       </c>
       <c r="I87" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J87" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M87" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="Q87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D88" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G88">
         <v>44</v>
@@ -5304,36 +5568,39 @@
         <v>87</v>
       </c>
       <c r="I88" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J88" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M88" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C89" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D89" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E89">
         <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G89">
         <v>45</v>
@@ -5342,36 +5609,39 @@
         <v>88</v>
       </c>
       <c r="I89" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J89" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M89" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C90" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D90" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E90">
         <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G90">
         <v>45</v>
@@ -5380,36 +5650,39 @@
         <v>88</v>
       </c>
       <c r="I90" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J90" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M90" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D91" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E91">
         <v>90</v>
       </c>
       <c r="F91" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G91">
         <v>45</v>
@@ -5418,36 +5691,39 @@
         <v>88</v>
       </c>
       <c r="I91" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J91" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M91" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="Q91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D92" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E92">
         <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G92">
         <v>45</v>
@@ -5456,36 +5732,39 @@
         <v>88</v>
       </c>
       <c r="I92" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J92" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M92" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B93" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C93" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E93">
         <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G93">
         <v>45</v>
@@ -5494,36 +5773,39 @@
         <v>88</v>
       </c>
       <c r="I93" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J93" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M93" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B94" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C94" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D94" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E94">
         <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G94">
         <v>45</v>
@@ -5532,36 +5814,39 @@
         <v>88</v>
       </c>
       <c r="I94" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J94" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M94" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="Q94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B95" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C95" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D95" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E95">
         <v>94</v>
       </c>
       <c r="F95" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G95">
         <v>46</v>
@@ -5570,36 +5855,39 @@
         <v>90</v>
       </c>
       <c r="I95" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J95" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M95" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C96" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D96" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E96">
         <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G96">
         <v>46</v>
@@ -5608,36 +5896,39 @@
         <v>90</v>
       </c>
       <c r="I96" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J96" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M96" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C97" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D97" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E97">
         <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G97">
         <v>48</v>
@@ -5646,36 +5937,39 @@
         <v>92</v>
       </c>
       <c r="I97" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J97" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="M97" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="Q97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C98" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D98" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E98">
         <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G98">
         <v>49</v>
@@ -5684,36 +5978,39 @@
         <v>93</v>
       </c>
       <c r="I98" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J98" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M98" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:16">
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C99" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D99" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E99">
         <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G99">
         <v>50</v>
@@ -5722,36 +6019,39 @@
         <v>94</v>
       </c>
       <c r="I99" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J99" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M99" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:16">
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B100" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C100" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D100" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E100">
         <v>99</v>
       </c>
       <c r="F100" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G100">
         <v>51</v>
@@ -5760,36 +6060,39 @@
         <v>95</v>
       </c>
       <c r="I100" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J100" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M100" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:16">
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B101" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C101" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D101" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E101">
         <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G101">
         <v>51</v>
@@ -5798,36 +6101,39 @@
         <v>95</v>
       </c>
       <c r="I101" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J101" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M101" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:16">
+      <c r="Q101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B102" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C102" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D102" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G102">
         <v>51</v>
@@ -5836,36 +6142,39 @@
         <v>95</v>
       </c>
       <c r="I102" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J102" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M102" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C103" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D103" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E103">
         <v>102</v>
       </c>
       <c r="F103" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G103">
         <v>53</v>
@@ -5874,36 +6183,39 @@
         <v>98</v>
       </c>
       <c r="I103" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J103" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="M103" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="Q103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B104" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D104" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G104">
         <v>54</v>
@@ -5912,36 +6224,39 @@
         <v>99</v>
       </c>
       <c r="I104" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J104" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M104" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:16">
+      <c r="Q104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D105" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E105">
         <v>104</v>
       </c>
       <c r="F105" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G105">
         <v>56</v>
@@ -5950,36 +6265,39 @@
         <v>101</v>
       </c>
       <c r="I105" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J105" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="M105" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:16">
+      <c r="Q105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C106" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D106" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G106">
         <v>57</v>
@@ -5988,36 +6306,39 @@
         <v>102</v>
       </c>
       <c r="I106" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J106" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M106" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:16">
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C107" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D107" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E107">
         <v>106</v>
       </c>
       <c r="F107" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G107">
         <v>57</v>
@@ -6026,36 +6347,39 @@
         <v>102</v>
       </c>
       <c r="I107" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J107" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M107" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:16">
+      <c r="Q107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C108" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D108" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E108">
         <v>107</v>
       </c>
       <c r="F108" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G108">
         <v>57</v>
@@ -6064,36 +6388,39 @@
         <v>102</v>
       </c>
       <c r="I108" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J108" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M108" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:16">
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C109" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D109" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E109">
         <v>108</v>
       </c>
       <c r="F109" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G109">
         <v>58</v>
@@ -6102,36 +6429,39 @@
         <v>103</v>
       </c>
       <c r="I109" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J109" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M109" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:16">
+      <c r="Q109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B110" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C110" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D110" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E110">
         <v>109</v>
       </c>
       <c r="F110" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G110">
         <v>58</v>
@@ -6140,36 +6470,39 @@
         <v>103</v>
       </c>
       <c r="I110" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J110" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M110" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:16">
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C111" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D111" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E111">
         <v>110</v>
       </c>
       <c r="F111" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G111">
         <v>58</v>
@@ -6178,36 +6511,39 @@
         <v>103</v>
       </c>
       <c r="I111" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J111" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M111" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:16">
+      <c r="Q111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C112" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D112" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E112">
         <v>111</v>
       </c>
       <c r="F112" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G112">
         <v>60</v>
@@ -6216,36 +6552,39 @@
         <v>105</v>
       </c>
       <c r="I112" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J112" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="M112" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:16">
+      <c r="Q112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C113" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D113" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E113">
         <v>112</v>
       </c>
       <c r="F113" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G113">
         <v>61</v>
@@ -6254,36 +6593,39 @@
         <v>106</v>
       </c>
       <c r="I113" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J113" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="M113" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:16">
+      <c r="Q113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B114" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C114" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D114" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E114">
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G114">
         <v>64</v>
@@ -6292,36 +6634,39 @@
         <v>111</v>
       </c>
       <c r="I114" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J114" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M114" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:16">
+      <c r="Q114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C115" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D115" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E115">
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G115">
         <v>65</v>
@@ -6330,36 +6675,39 @@
         <v>113</v>
       </c>
       <c r="I115" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J115" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M115" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:16">
+      <c r="Q115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C116" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D116" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G116">
         <v>67</v>
@@ -6368,36 +6716,39 @@
         <v>115</v>
       </c>
       <c r="I116" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J116" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M116" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:16">
+      <c r="Q116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D117" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G117">
         <v>69</v>
@@ -6406,36 +6757,39 @@
         <v>118</v>
       </c>
       <c r="I117" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J117" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M117" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:16">
+      <c r="Q117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B118" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C118" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D118" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E118">
         <v>117</v>
       </c>
       <c r="F118" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G118">
         <v>70</v>
@@ -6444,36 +6798,39 @@
         <v>119</v>
       </c>
       <c r="I118" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J118" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M118" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:16">
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D119" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E119">
         <v>118</v>
       </c>
       <c r="F119" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G119">
         <v>70</v>
@@ -6482,15 +6839,18 @@
         <v>119</v>
       </c>
       <c r="I119" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J119" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M119" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p31.xlsx
+++ b/files/separadas/repeat_p31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="517">
   <si>
     <t>p31_cod</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1960,13 +1963,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q119"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2018,25 +2021,28 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2045,13 +2051,13 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2059,25 +2065,28 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2086,13 +2095,13 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2100,25 +2109,28 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -2127,13 +2139,13 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2141,25 +2153,28 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -2168,13 +2183,13 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2182,25 +2197,28 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2209,13 +2227,13 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2223,25 +2241,28 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2250,13 +2271,13 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2264,25 +2285,28 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -2291,13 +2315,13 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2305,25 +2329,28 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2332,13 +2359,13 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J9" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2346,25 +2373,28 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -2373,13 +2403,13 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J10" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="M10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2387,25 +2417,28 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -2414,13 +2447,13 @@
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J11" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M11" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2428,25 +2461,28 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -2455,13 +2491,13 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M12" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2469,25 +2505,28 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -2496,13 +2535,13 @@
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="J13" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M13" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2510,25 +2549,28 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -2537,13 +2579,13 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2551,25 +2593,28 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -2578,13 +2623,13 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M15" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2592,25 +2637,28 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -2619,13 +2667,13 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M16" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2633,25 +2681,28 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G17">
         <v>11</v>
@@ -2660,13 +2711,13 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M17" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2674,25 +2725,28 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G18">
         <v>11</v>
@@ -2701,13 +2755,13 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M18" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2715,25 +2769,28 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G19">
         <v>12</v>
@@ -2742,13 +2799,13 @@
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J19" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2756,25 +2813,28 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G20">
         <v>13</v>
@@ -2783,13 +2843,13 @@
         <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J20" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M20" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2797,25 +2857,28 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D21" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G21">
         <v>14</v>
@@ -2824,13 +2887,13 @@
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J21" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M21" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2838,25 +2901,28 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G22">
         <v>14</v>
@@ -2865,13 +2931,13 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J22" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M22" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2879,25 +2945,28 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D23" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G23">
         <v>15</v>
@@ -2906,13 +2975,13 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J23" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M23" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2920,25 +2989,28 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G24">
         <v>15</v>
@@ -2947,13 +3019,13 @@
         <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J24" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M24" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2961,22 +3033,25 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="B25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D25" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G25">
         <v>15</v>
@@ -2985,13 +3060,13 @@
         <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J25" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M25" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -2999,25 +3074,28 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D26" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G26">
         <v>16</v>
@@ -3026,13 +3104,13 @@
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="J26" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M26" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -3040,25 +3118,28 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D27" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G27">
         <v>17</v>
@@ -3067,13 +3148,13 @@
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J27" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="M27" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3081,25 +3162,28 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D28" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G28">
         <v>18</v>
@@ -3108,13 +3192,13 @@
         <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J28" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="M28" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -3122,25 +3206,28 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G29">
         <v>19</v>
@@ -3149,13 +3236,13 @@
         <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J29" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M29" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3163,25 +3250,28 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G30">
         <v>19</v>
@@ -3190,13 +3280,13 @@
         <v>30</v>
       </c>
       <c r="I30" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J30" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M30" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -3204,25 +3294,28 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G31">
         <v>20</v>
@@ -3231,13 +3324,13 @@
         <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J31" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M31" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -3245,25 +3338,28 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D32" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G32">
         <v>21</v>
@@ -3272,13 +3368,13 @@
         <v>34</v>
       </c>
       <c r="I32" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J32" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M32" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -3286,25 +3382,28 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D33" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G33">
         <v>22</v>
@@ -3313,13 +3412,13 @@
         <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J33" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M33" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -3327,25 +3426,28 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D34" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G34">
         <v>22</v>
@@ -3354,13 +3456,13 @@
         <v>37</v>
       </c>
       <c r="I34" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J34" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M34" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3368,25 +3470,28 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D35" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G35">
         <v>22</v>
@@ -3395,13 +3500,13 @@
         <v>37</v>
       </c>
       <c r="I35" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J35" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M35" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -3409,25 +3514,28 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D36" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G36">
         <v>22</v>
@@ -3436,13 +3544,13 @@
         <v>37</v>
       </c>
       <c r="I36" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J36" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M36" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -3450,25 +3558,28 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D37" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G37">
         <v>22</v>
@@ -3477,13 +3588,13 @@
         <v>37</v>
       </c>
       <c r="I37" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M37" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -3491,25 +3602,28 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D38" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G38">
         <v>22</v>
@@ -3518,13 +3632,13 @@
         <v>37</v>
       </c>
       <c r="I38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M38" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -3532,25 +3646,28 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D39" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G39">
         <v>23</v>
@@ -3559,13 +3676,13 @@
         <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J39" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M39" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -3573,25 +3690,28 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D40" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G40">
         <v>23</v>
@@ -3600,13 +3720,13 @@
         <v>38</v>
       </c>
       <c r="I40" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J40" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M40" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3614,25 +3734,28 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D41" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G41">
         <v>23</v>
@@ -3641,13 +3764,13 @@
         <v>38</v>
       </c>
       <c r="I41" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J41" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M41" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -3655,25 +3778,28 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D42" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G42">
         <v>23</v>
@@ -3682,13 +3808,13 @@
         <v>38</v>
       </c>
       <c r="I42" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J42" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M42" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -3696,25 +3822,28 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D43" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G43">
         <v>23</v>
@@ -3723,13 +3852,13 @@
         <v>38</v>
       </c>
       <c r="I43" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J43" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M43" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -3737,25 +3866,28 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D44" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G44">
         <v>24</v>
@@ -3764,13 +3896,13 @@
         <v>51</v>
       </c>
       <c r="I44" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J44" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M44" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -3778,25 +3910,28 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D45" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G45">
         <v>24</v>
@@ -3805,13 +3940,13 @@
         <v>51</v>
       </c>
       <c r="I45" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J45" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M45" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -3819,25 +3954,28 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D46" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G46">
         <v>24</v>
@@ -3846,13 +3984,13 @@
         <v>51</v>
       </c>
       <c r="I46" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J46" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M46" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -3860,25 +3998,28 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D47" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G47">
         <v>24</v>
@@ -3887,13 +4028,13 @@
         <v>51</v>
       </c>
       <c r="I47" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J47" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M47" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -3901,25 +4042,28 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D48" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G48">
         <v>26</v>
@@ -3928,13 +4072,13 @@
         <v>55</v>
       </c>
       <c r="I48" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J48" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="M48" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3942,25 +4086,28 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G49">
         <v>27</v>
@@ -3969,13 +4116,13 @@
         <v>56</v>
       </c>
       <c r="I49" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J49" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M49" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3983,25 +4130,28 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D50" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G50">
         <v>27</v>
@@ -4010,13 +4160,13 @@
         <v>56</v>
       </c>
       <c r="I50" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J50" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M50" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -4024,25 +4174,28 @@
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D51" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G51">
         <v>28</v>
@@ -4051,13 +4204,13 @@
         <v>57</v>
       </c>
       <c r="I51" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J51" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M51" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -4065,25 +4218,28 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D52" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G52">
         <v>28</v>
@@ -4092,13 +4248,13 @@
         <v>57</v>
       </c>
       <c r="I52" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J52" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M52" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -4106,25 +4262,28 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C53" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D53" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G53">
         <v>29</v>
@@ -4133,13 +4292,13 @@
         <v>58</v>
       </c>
       <c r="I53" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J53" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M53" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -4147,25 +4306,28 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D54" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G54">
         <v>29</v>
@@ -4174,13 +4336,13 @@
         <v>58</v>
       </c>
       <c r="I54" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J54" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M54" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -4188,25 +4350,28 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C55" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D55" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G55">
         <v>29</v>
@@ -4215,13 +4380,13 @@
         <v>58</v>
       </c>
       <c r="I55" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J55" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M55" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -4229,25 +4394,28 @@
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C56" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D56" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G56">
         <v>29</v>
@@ -4256,13 +4424,13 @@
         <v>58</v>
       </c>
       <c r="I56" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J56" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M56" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -4270,25 +4438,28 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D57" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G57">
         <v>29</v>
@@ -4297,13 +4468,13 @@
         <v>58</v>
       </c>
       <c r="I57" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J57" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M57" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -4311,25 +4482,28 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D58" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G58">
         <v>29</v>
@@ -4338,13 +4512,13 @@
         <v>58</v>
       </c>
       <c r="I58" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J58" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M58" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -4352,25 +4526,28 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D59" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G59">
         <v>30</v>
@@ -4379,13 +4556,13 @@
         <v>59</v>
       </c>
       <c r="I59" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J59" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M59" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -4393,25 +4570,28 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D60" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G60">
         <v>30</v>
@@ -4420,13 +4600,13 @@
         <v>59</v>
       </c>
       <c r="I60" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J60" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M60" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -4434,25 +4614,28 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D61" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G61">
         <v>30</v>
@@ -4461,13 +4644,13 @@
         <v>59</v>
       </c>
       <c r="I61" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J61" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M61" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -4475,25 +4658,28 @@
       <c r="Q61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C62" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D62" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G62">
         <v>30</v>
@@ -4502,13 +4688,13 @@
         <v>59</v>
       </c>
       <c r="I62" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J62" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M62" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -4516,25 +4702,28 @@
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D63" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G63">
         <v>30</v>
@@ -4543,13 +4732,13 @@
         <v>59</v>
       </c>
       <c r="I63" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J63" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M63" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -4557,25 +4746,28 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D64" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G64">
         <v>30</v>
@@ -4584,13 +4776,13 @@
         <v>59</v>
       </c>
       <c r="I64" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J64" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M64" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -4598,25 +4790,28 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C65" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D65" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G65">
         <v>31</v>
@@ -4625,13 +4820,13 @@
         <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J65" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M65" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -4639,25 +4834,28 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C66" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D66" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G66">
         <v>32</v>
@@ -4666,13 +4864,13 @@
         <v>61</v>
       </c>
       <c r="I66" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J66" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M66" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -4680,25 +4878,28 @@
       <c r="Q66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C67" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D67" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G67">
         <v>32</v>
@@ -4707,13 +4908,13 @@
         <v>61</v>
       </c>
       <c r="I67" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J67" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M67" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -4721,25 +4922,28 @@
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C68" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D68" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G68">
         <v>32</v>
@@ -4748,13 +4952,13 @@
         <v>61</v>
       </c>
       <c r="I68" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J68" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M68" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4762,25 +4966,28 @@
       <c r="Q68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C69" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D69" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G69">
         <v>33</v>
@@ -4789,13 +4996,13 @@
         <v>63</v>
       </c>
       <c r="I69" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J69" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M69" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -4803,25 +5010,28 @@
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C70" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D70" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G70">
         <v>33</v>
@@ -4830,13 +5040,13 @@
         <v>63</v>
       </c>
       <c r="I70" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J70" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M70" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -4844,25 +5054,28 @@
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C71" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D71" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G71">
         <v>33</v>
@@ -4871,13 +5084,13 @@
         <v>63</v>
       </c>
       <c r="I71" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J71" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M71" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -4885,25 +5098,28 @@
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C72" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D72" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G72">
         <v>33</v>
@@ -4912,13 +5128,13 @@
         <v>63</v>
       </c>
       <c r="I72" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J72" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M72" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4926,25 +5142,28 @@
       <c r="Q72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C73" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D73" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G73">
         <v>34</v>
@@ -4953,13 +5172,13 @@
         <v>64</v>
       </c>
       <c r="I73" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J73" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M73" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4967,25 +5186,28 @@
       <c r="Q73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C74" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D74" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G74">
         <v>34</v>
@@ -4994,13 +5216,13 @@
         <v>64</v>
       </c>
       <c r="I74" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="J74" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M74" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -5008,25 +5230,28 @@
       <c r="Q74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D75" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G75">
         <v>35</v>
@@ -5035,13 +5260,13 @@
         <v>75</v>
       </c>
       <c r="I75" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J75" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="M75" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -5049,25 +5274,28 @@
       <c r="Q75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C76" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D76" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G76">
         <v>35</v>
@@ -5076,13 +5304,13 @@
         <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J76" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="M76" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -5090,25 +5318,28 @@
       <c r="Q76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C77" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D77" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G77">
         <v>36</v>
@@ -5117,13 +5348,13 @@
         <v>77</v>
       </c>
       <c r="I77" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J77" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M77" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -5131,25 +5362,28 @@
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C78" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D78" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G78">
         <v>36</v>
@@ -5158,13 +5392,13 @@
         <v>77</v>
       </c>
       <c r="I78" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J78" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M78" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -5172,25 +5406,28 @@
       <c r="Q78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C79" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D79" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G79">
         <v>37</v>
@@ -5199,13 +5436,13 @@
         <v>78</v>
       </c>
       <c r="I79" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J79" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M79" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -5213,25 +5450,28 @@
       <c r="Q79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C80" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D80" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G80">
         <v>37</v>
@@ -5240,13 +5480,13 @@
         <v>78</v>
       </c>
       <c r="I80" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J80" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M80" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -5254,25 +5494,28 @@
       <c r="Q80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C81" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D81" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G81">
         <v>38</v>
@@ -5281,13 +5524,13 @@
         <v>80</v>
       </c>
       <c r="I81" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J81" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M81" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -5295,25 +5538,28 @@
       <c r="Q81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G82">
         <v>39</v>
@@ -5322,13 +5568,13 @@
         <v>81</v>
       </c>
       <c r="I82" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J82" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M82" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -5336,25 +5582,28 @@
       <c r="Q82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C83" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D83" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G83">
         <v>40</v>
@@ -5363,13 +5612,13 @@
         <v>82</v>
       </c>
       <c r="I83" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J83" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="M83" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -5377,25 +5626,28 @@
       <c r="Q83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="R83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C84" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D84" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G84">
         <v>41</v>
@@ -5404,13 +5656,13 @@
         <v>83</v>
       </c>
       <c r="I84" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="J84" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="M84" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -5418,25 +5670,28 @@
       <c r="Q84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="R84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C85" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D85" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G85">
         <v>42</v>
@@ -5445,13 +5700,13 @@
         <v>84</v>
       </c>
       <c r="I85" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J85" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M85" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -5459,25 +5714,28 @@
       <c r="Q85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="R85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D86" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G86">
         <v>42</v>
@@ -5486,13 +5744,13 @@
         <v>84</v>
       </c>
       <c r="I86" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J86" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M86" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -5500,25 +5758,28 @@
       <c r="Q86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="R86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D87" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G87">
         <v>44</v>
@@ -5527,13 +5788,13 @@
         <v>87</v>
       </c>
       <c r="I87" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J87" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M87" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -5541,25 +5802,28 @@
       <c r="Q87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="R87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C88" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D88" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G88">
         <v>44</v>
@@ -5568,13 +5832,13 @@
         <v>87</v>
       </c>
       <c r="I88" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J88" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M88" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -5582,25 +5846,28 @@
       <c r="Q88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="R88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C89" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D89" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E89">
         <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G89">
         <v>45</v>
@@ -5609,13 +5876,13 @@
         <v>88</v>
       </c>
       <c r="I89" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J89" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M89" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -5623,25 +5890,28 @@
       <c r="Q89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="R89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C90" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D90" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E90">
         <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G90">
         <v>45</v>
@@ -5650,13 +5920,13 @@
         <v>88</v>
       </c>
       <c r="I90" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J90" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M90" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -5664,25 +5934,28 @@
       <c r="Q90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="R90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D91" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E91">
         <v>90</v>
       </c>
       <c r="F91" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G91">
         <v>45</v>
@@ -5691,13 +5964,13 @@
         <v>88</v>
       </c>
       <c r="I91" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J91" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M91" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -5705,25 +5978,28 @@
       <c r="Q91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:17">
+      <c r="R91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D92" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E92">
         <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G92">
         <v>45</v>
@@ -5732,13 +6008,13 @@
         <v>88</v>
       </c>
       <c r="I92" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J92" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M92" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -5746,25 +6022,28 @@
       <c r="Q92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="R92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D93" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E93">
         <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G93">
         <v>45</v>
@@ -5773,13 +6052,13 @@
         <v>88</v>
       </c>
       <c r="I93" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J93" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M93" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -5787,25 +6066,28 @@
       <c r="Q93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="R93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C94" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D94" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E94">
         <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G94">
         <v>45</v>
@@ -5814,13 +6096,13 @@
         <v>88</v>
       </c>
       <c r="I94" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J94" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M94" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -5828,25 +6110,28 @@
       <c r="Q94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="R94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C95" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D95" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E95">
         <v>94</v>
       </c>
       <c r="F95" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G95">
         <v>46</v>
@@ -5855,13 +6140,13 @@
         <v>90</v>
       </c>
       <c r="I95" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J95" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M95" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -5869,25 +6154,28 @@
       <c r="Q95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:17">
+      <c r="R95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C96" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D96" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E96">
         <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G96">
         <v>46</v>
@@ -5896,13 +6184,13 @@
         <v>90</v>
       </c>
       <c r="I96" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J96" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M96" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -5910,25 +6198,28 @@
       <c r="Q96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:17">
+      <c r="R96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C97" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D97" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E97">
         <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G97">
         <v>48</v>
@@ -5937,13 +6228,13 @@
         <v>92</v>
       </c>
       <c r="I97" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J97" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="M97" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -5951,25 +6242,28 @@
       <c r="Q97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:17">
+      <c r="R97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C98" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D98" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E98">
         <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G98">
         <v>49</v>
@@ -5978,13 +6272,13 @@
         <v>93</v>
       </c>
       <c r="I98" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J98" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M98" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -5992,25 +6286,28 @@
       <c r="Q98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:17">
+      <c r="R98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C99" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D99" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E99">
         <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G99">
         <v>50</v>
@@ -6019,13 +6316,13 @@
         <v>94</v>
       </c>
       <c r="I99" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J99" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M99" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -6033,25 +6330,28 @@
       <c r="Q99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:17">
+      <c r="R99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C100" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D100" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E100">
         <v>99</v>
       </c>
       <c r="F100" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G100">
         <v>51</v>
@@ -6060,13 +6360,13 @@
         <v>95</v>
       </c>
       <c r="I100" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J100" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M100" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -6074,25 +6374,28 @@
       <c r="Q100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:17">
+      <c r="R100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C101" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D101" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E101">
         <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G101">
         <v>51</v>
@@ -6101,13 +6404,13 @@
         <v>95</v>
       </c>
       <c r="I101" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J101" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M101" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -6115,25 +6418,28 @@
       <c r="Q101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:17">
+      <c r="R101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C102" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D102" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G102">
         <v>51</v>
@@ -6142,13 +6448,13 @@
         <v>95</v>
       </c>
       <c r="I102" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J102" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M102" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -6156,25 +6462,28 @@
       <c r="Q102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:17">
+      <c r="R102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C103" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D103" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E103">
         <v>102</v>
       </c>
       <c r="F103" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G103">
         <v>53</v>
@@ -6183,13 +6492,13 @@
         <v>98</v>
       </c>
       <c r="I103" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J103" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="M103" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -6197,25 +6506,28 @@
       <c r="Q103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:17">
+      <c r="R103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B104" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C104" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D104" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G104">
         <v>54</v>
@@ -6224,13 +6536,13 @@
         <v>99</v>
       </c>
       <c r="I104" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J104" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M104" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -6238,25 +6550,28 @@
       <c r="Q104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:17">
+      <c r="R104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C105" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D105" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E105">
         <v>104</v>
       </c>
       <c r="F105" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G105">
         <v>56</v>
@@ -6265,13 +6580,13 @@
         <v>101</v>
       </c>
       <c r="I105" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J105" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="M105" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -6279,25 +6594,28 @@
       <c r="Q105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:17">
+      <c r="R105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C106" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D106" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G106">
         <v>57</v>
@@ -6306,13 +6624,13 @@
         <v>102</v>
       </c>
       <c r="I106" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J106" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M106" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -6320,25 +6638,28 @@
       <c r="Q106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:17">
+      <c r="R106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B107" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C107" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D107" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E107">
         <v>106</v>
       </c>
       <c r="F107" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G107">
         <v>57</v>
@@ -6347,13 +6668,13 @@
         <v>102</v>
       </c>
       <c r="I107" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J107" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M107" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -6361,25 +6682,28 @@
       <c r="Q107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:17">
+      <c r="R107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B108" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C108" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D108" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E108">
         <v>107</v>
       </c>
       <c r="F108" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G108">
         <v>57</v>
@@ -6388,13 +6712,13 @@
         <v>102</v>
       </c>
       <c r="I108" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J108" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M108" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -6402,25 +6726,28 @@
       <c r="Q108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:17">
+      <c r="R108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C109" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D109" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E109">
         <v>108</v>
       </c>
       <c r="F109" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G109">
         <v>58</v>
@@ -6429,13 +6756,13 @@
         <v>103</v>
       </c>
       <c r="I109" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J109" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M109" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -6443,25 +6770,28 @@
       <c r="Q109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:17">
+      <c r="R109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C110" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D110" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E110">
         <v>109</v>
       </c>
       <c r="F110" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G110">
         <v>58</v>
@@ -6470,13 +6800,13 @@
         <v>103</v>
       </c>
       <c r="I110" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J110" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M110" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -6484,25 +6814,28 @@
       <c r="Q110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:17">
+      <c r="R110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C111" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D111" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E111">
         <v>110</v>
       </c>
       <c r="F111" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G111">
         <v>58</v>
@@ -6511,13 +6844,13 @@
         <v>103</v>
       </c>
       <c r="I111" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J111" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M111" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -6525,25 +6858,28 @@
       <c r="Q111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:17">
+      <c r="R111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C112" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D112" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E112">
         <v>111</v>
       </c>
       <c r="F112" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G112">
         <v>60</v>
@@ -6552,13 +6888,13 @@
         <v>105</v>
       </c>
       <c r="I112" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J112" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="M112" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -6566,25 +6902,28 @@
       <c r="Q112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:17">
+      <c r="R112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C113" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D113" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E113">
         <v>112</v>
       </c>
       <c r="F113" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G113">
         <v>61</v>
@@ -6593,13 +6932,13 @@
         <v>106</v>
       </c>
       <c r="I113" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J113" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="M113" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -6607,25 +6946,28 @@
       <c r="Q113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:17">
+      <c r="R113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B114" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C114" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D114" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E114">
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G114">
         <v>64</v>
@@ -6634,13 +6976,13 @@
         <v>111</v>
       </c>
       <c r="I114" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="J114" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M114" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -6648,25 +6990,28 @@
       <c r="Q114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:17">
+      <c r="R114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D115" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E115">
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G115">
         <v>65</v>
@@ -6675,13 +7020,13 @@
         <v>113</v>
       </c>
       <c r="I115" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J115" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M115" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -6689,25 +7034,28 @@
       <c r="Q115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:17">
+      <c r="R115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C116" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D116" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G116">
         <v>67</v>
@@ -6716,13 +7064,13 @@
         <v>115</v>
       </c>
       <c r="I116" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J116" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M116" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -6730,25 +7078,28 @@
       <c r="Q116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:17">
+      <c r="R116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C117" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D117" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G117">
         <v>69</v>
@@ -6757,13 +7108,13 @@
         <v>118</v>
       </c>
       <c r="I117" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J117" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M117" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -6771,25 +7122,28 @@
       <c r="Q117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:17">
+      <c r="R117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C118" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D118" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E118">
         <v>117</v>
       </c>
       <c r="F118" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G118">
         <v>70</v>
@@ -6798,13 +7152,13 @@
         <v>119</v>
       </c>
       <c r="I118" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J118" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M118" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -6812,25 +7166,28 @@
       <c r="Q118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:17">
+      <c r="R118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C119" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D119" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E119">
         <v>118</v>
       </c>
       <c r="F119" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G119">
         <v>70</v>
@@ -6839,18 +7196,21 @@
         <v>119</v>
       </c>
       <c r="I119" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J119" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M119" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P119">
         <v>0</v>
       </c>
       <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p31.xlsx
+++ b/files/separadas/repeat_p31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="515">
   <si>
     <t>p31_cod</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1963,13 +1957,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R119"/>
+  <dimension ref="A1:P119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2018,31 +2012,25 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2051,42 +2039,36 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2095,42 +2077,36 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J3" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -2139,42 +2115,36 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -2183,42 +2153,36 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2227,42 +2191,36 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J6" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -2271,42 +2229,36 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J7" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -2315,42 +2267,36 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J8" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -2359,42 +2305,36 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J9" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="M9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -2403,42 +2343,36 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J10" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="M10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G11">
         <v>9</v>
@@ -2447,42 +2381,36 @@
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J11" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -2491,42 +2419,36 @@
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J12" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -2535,42 +2457,36 @@
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J13" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M13" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G14">
         <v>11</v>
@@ -2579,42 +2495,36 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D15" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -2623,42 +2533,36 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -2667,42 +2571,36 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M16" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G17">
         <v>11</v>
@@ -2711,42 +2609,36 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G18">
         <v>11</v>
@@ -2755,42 +2647,36 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G19">
         <v>12</v>
@@ -2799,42 +2685,36 @@
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J19" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G20">
         <v>13</v>
@@ -2843,42 +2723,36 @@
         <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J20" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M20" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G21">
         <v>14</v>
@@ -2887,42 +2761,36 @@
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J21" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M21" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G22">
         <v>14</v>
@@ -2931,42 +2799,36 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J22" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D23" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G23">
         <v>15</v>
@@ -2975,42 +2837,36 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J23" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M23" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G24">
         <v>15</v>
@@ -3019,39 +2875,33 @@
         <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J24" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M24" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+    </row>
+    <row r="25" spans="1:16">
       <c r="B25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G25">
         <v>15</v>
@@ -3060,42 +2910,36 @@
         <v>22</v>
       </c>
       <c r="I25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J25" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G26">
         <v>16</v>
@@ -3104,42 +2948,36 @@
         <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J26" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M26" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D27" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G27">
         <v>17</v>
@@ -3148,42 +2986,36 @@
         <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J27" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="M27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G28">
         <v>18</v>
@@ -3192,42 +3024,36 @@
         <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="J28" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="M28" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G29">
         <v>19</v>
@@ -3236,42 +3062,36 @@
         <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J29" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M29" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D30" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G30">
         <v>19</v>
@@ -3280,42 +3100,36 @@
         <v>30</v>
       </c>
       <c r="I30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J30" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="M30" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D31" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G31">
         <v>20</v>
@@ -3324,42 +3138,36 @@
         <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J31" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M31" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G32">
         <v>21</v>
@@ -3368,42 +3176,36 @@
         <v>34</v>
       </c>
       <c r="I32" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J32" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M32" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D33" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G33">
         <v>22</v>
@@ -3412,42 +3214,36 @@
         <v>37</v>
       </c>
       <c r="I33" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J33" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M33" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D34" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G34">
         <v>22</v>
@@ -3456,42 +3252,36 @@
         <v>37</v>
       </c>
       <c r="I34" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J34" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M34" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D35" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G35">
         <v>22</v>
@@ -3500,42 +3290,36 @@
         <v>37</v>
       </c>
       <c r="I35" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J35" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M35" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D36" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G36">
         <v>22</v>
@@ -3544,42 +3328,36 @@
         <v>37</v>
       </c>
       <c r="I36" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J36" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M36" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D37" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G37">
         <v>22</v>
@@ -3588,42 +3366,36 @@
         <v>37</v>
       </c>
       <c r="I37" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M37" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G38">
         <v>22</v>
@@ -3632,42 +3404,36 @@
         <v>37</v>
       </c>
       <c r="I38" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M38" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D39" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G39">
         <v>23</v>
@@ -3676,42 +3442,36 @@
         <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J39" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M39" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D40" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G40">
         <v>23</v>
@@ -3720,42 +3480,36 @@
         <v>38</v>
       </c>
       <c r="I40" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J40" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M40" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D41" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G41">
         <v>23</v>
@@ -3764,42 +3518,36 @@
         <v>38</v>
       </c>
       <c r="I41" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J41" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M41" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D42" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G42">
         <v>23</v>
@@ -3808,42 +3556,36 @@
         <v>38</v>
       </c>
       <c r="I42" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J42" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M42" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D43" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G43">
         <v>23</v>
@@ -3852,42 +3594,36 @@
         <v>38</v>
       </c>
       <c r="I43" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J43" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M43" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D44" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G44">
         <v>24</v>
@@ -3896,42 +3632,36 @@
         <v>51</v>
       </c>
       <c r="I44" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J44" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M44" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D45" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G45">
         <v>24</v>
@@ -3940,42 +3670,36 @@
         <v>51</v>
       </c>
       <c r="I45" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J45" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M45" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D46" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G46">
         <v>24</v>
@@ -3984,42 +3708,36 @@
         <v>51</v>
       </c>
       <c r="I46" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J46" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M46" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D47" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G47">
         <v>24</v>
@@ -4028,42 +3746,36 @@
         <v>51</v>
       </c>
       <c r="I47" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J47" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M47" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D48" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G48">
         <v>26</v>
@@ -4072,42 +3784,36 @@
         <v>55</v>
       </c>
       <c r="I48" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J48" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="M48" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D49" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G49">
         <v>27</v>
@@ -4116,42 +3822,36 @@
         <v>56</v>
       </c>
       <c r="I49" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J49" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M49" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D50" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G50">
         <v>27</v>
@@ -4160,42 +3860,36 @@
         <v>56</v>
       </c>
       <c r="I50" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J50" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M50" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D51" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G51">
         <v>28</v>
@@ -4204,42 +3898,36 @@
         <v>57</v>
       </c>
       <c r="I51" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J51" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M51" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C52" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D52" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G52">
         <v>28</v>
@@ -4248,42 +3936,36 @@
         <v>57</v>
       </c>
       <c r="I52" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="J52" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M52" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D53" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G53">
         <v>29</v>
@@ -4292,42 +3974,36 @@
         <v>58</v>
       </c>
       <c r="I53" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J53" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M53" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C54" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D54" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G54">
         <v>29</v>
@@ -4336,42 +4012,36 @@
         <v>58</v>
       </c>
       <c r="I54" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J54" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M54" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D55" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G55">
         <v>29</v>
@@ -4380,42 +4050,36 @@
         <v>58</v>
       </c>
       <c r="I55" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J55" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M55" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18">
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D56" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G56">
         <v>29</v>
@@ -4424,42 +4088,36 @@
         <v>58</v>
       </c>
       <c r="I56" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J56" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M56" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D57" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G57">
         <v>29</v>
@@ -4468,42 +4126,36 @@
         <v>58</v>
       </c>
       <c r="I57" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J57" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M57" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D58" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G58">
         <v>29</v>
@@ -4512,42 +4164,36 @@
         <v>58</v>
       </c>
       <c r="I58" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J58" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M58" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C59" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D59" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G59">
         <v>30</v>
@@ -4556,42 +4202,36 @@
         <v>59</v>
       </c>
       <c r="I59" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J59" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M59" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18">
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D60" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G60">
         <v>30</v>
@@ -4600,42 +4240,36 @@
         <v>59</v>
       </c>
       <c r="I60" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J60" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M60" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C61" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D61" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G61">
         <v>30</v>
@@ -4644,42 +4278,36 @@
         <v>59</v>
       </c>
       <c r="I61" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J61" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M61" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C62" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D62" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G62">
         <v>30</v>
@@ -4688,42 +4316,36 @@
         <v>59</v>
       </c>
       <c r="I62" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J62" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M62" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D63" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G63">
         <v>30</v>
@@ -4732,42 +4354,36 @@
         <v>59</v>
       </c>
       <c r="I63" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J63" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M63" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D64" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G64">
         <v>30</v>
@@ -4776,42 +4392,36 @@
         <v>59</v>
       </c>
       <c r="I64" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J64" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M64" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18">
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D65" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G65">
         <v>31</v>
@@ -4820,42 +4430,36 @@
         <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="J65" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M65" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18">
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D66" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G66">
         <v>32</v>
@@ -4864,42 +4468,36 @@
         <v>61</v>
       </c>
       <c r="I66" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J66" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M66" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C67" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D67" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G67">
         <v>32</v>
@@ -4908,42 +4506,36 @@
         <v>61</v>
       </c>
       <c r="I67" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J67" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M67" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C68" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D68" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G68">
         <v>32</v>
@@ -4952,42 +4544,36 @@
         <v>61</v>
       </c>
       <c r="I68" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J68" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M68" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C69" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D69" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G69">
         <v>33</v>
@@ -4996,42 +4582,36 @@
         <v>63</v>
       </c>
       <c r="I69" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J69" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M69" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C70" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D70" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G70">
         <v>33</v>
@@ -5040,42 +4620,36 @@
         <v>63</v>
       </c>
       <c r="I70" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J70" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M70" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C71" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D71" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G71">
         <v>33</v>
@@ -5084,42 +4658,36 @@
         <v>63</v>
       </c>
       <c r="I71" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J71" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M71" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D72" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G72">
         <v>33</v>
@@ -5128,42 +4696,36 @@
         <v>63</v>
       </c>
       <c r="I72" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J72" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M72" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C73" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D73" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G73">
         <v>34</v>
@@ -5172,42 +4734,36 @@
         <v>64</v>
       </c>
       <c r="I73" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J73" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M73" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C74" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D74" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G74">
         <v>34</v>
@@ -5216,42 +4772,36 @@
         <v>64</v>
       </c>
       <c r="I74" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J74" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M74" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D75" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G75">
         <v>35</v>
@@ -5260,42 +4810,36 @@
         <v>75</v>
       </c>
       <c r="I75" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J75" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="M75" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C76" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D76" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G76">
         <v>35</v>
@@ -5304,42 +4848,36 @@
         <v>75</v>
       </c>
       <c r="I76" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J76" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="M76" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D77" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G77">
         <v>36</v>
@@ -5348,42 +4886,36 @@
         <v>77</v>
       </c>
       <c r="I77" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J77" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M77" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C78" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D78" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G78">
         <v>36</v>
@@ -5392,42 +4924,36 @@
         <v>77</v>
       </c>
       <c r="I78" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J78" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M78" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D79" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G79">
         <v>37</v>
@@ -5436,42 +4962,36 @@
         <v>78</v>
       </c>
       <c r="I79" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J79" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M79" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C80" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D80" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E80">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G80">
         <v>37</v>
@@ -5480,42 +5000,36 @@
         <v>78</v>
       </c>
       <c r="I80" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="J80" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M80" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P80">
         <v>0</v>
       </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D81" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E81">
         <v>80</v>
       </c>
       <c r="F81" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G81">
         <v>38</v>
@@ -5524,42 +5038,36 @@
         <v>80</v>
       </c>
       <c r="I81" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J81" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M81" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P81">
         <v>0</v>
       </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E82">
         <v>81</v>
       </c>
       <c r="F82" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G82">
         <v>39</v>
@@ -5568,42 +5076,36 @@
         <v>81</v>
       </c>
       <c r="I82" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J82" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M82" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P82">
         <v>0</v>
       </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C83" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D83" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G83">
         <v>40</v>
@@ -5612,42 +5114,36 @@
         <v>82</v>
       </c>
       <c r="I83" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J83" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="M83" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P83">
         <v>0</v>
       </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C84" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D84" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E84">
         <v>83</v>
       </c>
       <c r="F84" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G84">
         <v>41</v>
@@ -5656,42 +5152,36 @@
         <v>83</v>
       </c>
       <c r="I84" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J84" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="M84" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P84">
         <v>0</v>
       </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C85" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D85" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E85">
         <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G85">
         <v>42</v>
@@ -5700,42 +5190,36 @@
         <v>84</v>
       </c>
       <c r="I85" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J85" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M85" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P85">
         <v>0</v>
       </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D86" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E86">
         <v>85</v>
       </c>
       <c r="F86" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G86">
         <v>42</v>
@@ -5744,42 +5228,36 @@
         <v>84</v>
       </c>
       <c r="I86" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J86" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M86" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P86">
         <v>0</v>
       </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C87" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D87" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E87">
         <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G87">
         <v>44</v>
@@ -5788,42 +5266,36 @@
         <v>87</v>
       </c>
       <c r="I87" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J87" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M87" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P87">
         <v>0</v>
       </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D88" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G88">
         <v>44</v>
@@ -5832,42 +5304,36 @@
         <v>87</v>
       </c>
       <c r="I88" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J88" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M88" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P88">
         <v>0</v>
       </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C89" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D89" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E89">
         <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G89">
         <v>45</v>
@@ -5876,42 +5342,36 @@
         <v>88</v>
       </c>
       <c r="I89" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J89" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M89" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C90" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D90" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E90">
         <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G90">
         <v>45</v>
@@ -5920,42 +5380,36 @@
         <v>88</v>
       </c>
       <c r="I90" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J90" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M90" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P90">
         <v>0</v>
       </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D91" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E91">
         <v>90</v>
       </c>
       <c r="F91" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G91">
         <v>45</v>
@@ -5964,42 +5418,36 @@
         <v>88</v>
       </c>
       <c r="I91" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J91" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M91" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P91">
         <v>0</v>
       </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D92" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E92">
         <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G92">
         <v>45</v>
@@ -6008,42 +5456,36 @@
         <v>88</v>
       </c>
       <c r="I92" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J92" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M92" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P92">
         <v>0</v>
       </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D93" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E93">
         <v>92</v>
       </c>
       <c r="F93" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G93">
         <v>45</v>
@@ -6052,42 +5494,36 @@
         <v>88</v>
       </c>
       <c r="I93" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J93" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M93" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P93">
         <v>0</v>
       </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C94" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D94" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E94">
         <v>93</v>
       </c>
       <c r="F94" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G94">
         <v>45</v>
@@ -6096,42 +5532,36 @@
         <v>88</v>
       </c>
       <c r="I94" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J94" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M94" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P94">
         <v>0</v>
       </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C95" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D95" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E95">
         <v>94</v>
       </c>
       <c r="F95" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G95">
         <v>46</v>
@@ -6140,42 +5570,36 @@
         <v>90</v>
       </c>
       <c r="I95" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J95" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M95" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P95">
         <v>0</v>
       </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18">
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C96" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D96" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E96">
         <v>95</v>
       </c>
       <c r="F96" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G96">
         <v>46</v>
@@ -6184,42 +5608,36 @@
         <v>90</v>
       </c>
       <c r="I96" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J96" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M96" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C97" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D97" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E97">
         <v>96</v>
       </c>
       <c r="F97" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G97">
         <v>48</v>
@@ -6228,42 +5646,36 @@
         <v>92</v>
       </c>
       <c r="I97" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J97" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="M97" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P97">
         <v>0</v>
       </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18">
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C98" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D98" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E98">
         <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G98">
         <v>49</v>
@@ -6272,42 +5684,36 @@
         <v>93</v>
       </c>
       <c r="I98" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J98" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="M98" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P98">
         <v>0</v>
       </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18">
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C99" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D99" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E99">
         <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G99">
         <v>50</v>
@@ -6316,42 +5722,36 @@
         <v>94</v>
       </c>
       <c r="I99" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J99" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M99" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P99">
         <v>0</v>
       </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18">
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C100" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D100" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E100">
         <v>99</v>
       </c>
       <c r="F100" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G100">
         <v>51</v>
@@ -6360,42 +5760,36 @@
         <v>95</v>
       </c>
       <c r="I100" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J100" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M100" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P100">
         <v>0</v>
       </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18">
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B101" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C101" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D101" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E101">
         <v>100</v>
       </c>
       <c r="F101" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G101">
         <v>51</v>
@@ -6404,42 +5798,36 @@
         <v>95</v>
       </c>
       <c r="I101" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J101" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M101" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P101">
         <v>0</v>
       </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18">
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B102" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C102" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D102" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G102">
         <v>51</v>
@@ -6448,42 +5836,36 @@
         <v>95</v>
       </c>
       <c r="I102" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J102" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M102" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P102">
         <v>0</v>
       </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18">
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B103" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C103" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D103" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E103">
         <v>102</v>
       </c>
       <c r="F103" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G103">
         <v>53</v>
@@ -6492,42 +5874,36 @@
         <v>98</v>
       </c>
       <c r="I103" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J103" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="M103" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18">
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C104" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D104" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E104">
         <v>103</v>
       </c>
       <c r="F104" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G104">
         <v>54</v>
@@ -6536,42 +5912,36 @@
         <v>99</v>
       </c>
       <c r="I104" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J104" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M104" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P104">
         <v>0</v>
       </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-      <c r="R104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18">
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B105" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C105" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D105" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E105">
         <v>104</v>
       </c>
       <c r="F105" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G105">
         <v>56</v>
@@ -6580,42 +5950,36 @@
         <v>101</v>
       </c>
       <c r="I105" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J105" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="M105" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P105">
         <v>0</v>
       </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-      <c r="R105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18">
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C106" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D106" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G106">
         <v>57</v>
@@ -6624,42 +5988,36 @@
         <v>102</v>
       </c>
       <c r="I106" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J106" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M106" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P106">
         <v>0</v>
       </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-      <c r="R106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18">
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C107" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D107" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E107">
         <v>106</v>
       </c>
       <c r="F107" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G107">
         <v>57</v>
@@ -6668,42 +6026,36 @@
         <v>102</v>
       </c>
       <c r="I107" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J107" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M107" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P107">
         <v>0</v>
       </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="R107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18">
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B108" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C108" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D108" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E108">
         <v>107</v>
       </c>
       <c r="F108" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G108">
         <v>57</v>
@@ -6712,42 +6064,36 @@
         <v>102</v>
       </c>
       <c r="I108" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J108" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M108" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
-      <c r="R108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18">
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B109" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C109" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D109" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E109">
         <v>108</v>
       </c>
       <c r="F109" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G109">
         <v>58</v>
@@ -6756,42 +6102,36 @@
         <v>103</v>
       </c>
       <c r="I109" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J109" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M109" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18">
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C110" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D110" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E110">
         <v>109</v>
       </c>
       <c r="F110" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G110">
         <v>58</v>
@@ -6800,42 +6140,36 @@
         <v>103</v>
       </c>
       <c r="I110" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J110" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M110" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P110">
         <v>0</v>
       </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-      <c r="R110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18">
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C111" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D111" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E111">
         <v>110</v>
       </c>
       <c r="F111" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G111">
         <v>58</v>
@@ -6844,42 +6178,36 @@
         <v>103</v>
       </c>
       <c r="I111" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J111" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="M111" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P111">
         <v>0</v>
       </c>
-      <c r="Q111">
-        <v>0</v>
-      </c>
-      <c r="R111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18">
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B112" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C112" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D112" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E112">
         <v>111</v>
       </c>
       <c r="F112" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G112">
         <v>60</v>
@@ -6888,42 +6216,36 @@
         <v>105</v>
       </c>
       <c r="I112" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J112" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="M112" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P112">
         <v>0</v>
       </c>
-      <c r="Q112">
-        <v>0</v>
-      </c>
-      <c r="R112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18">
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C113" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D113" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E113">
         <v>112</v>
       </c>
       <c r="F113" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G113">
         <v>61</v>
@@ -6932,42 +6254,36 @@
         <v>106</v>
       </c>
       <c r="I113" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J113" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="M113" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-      <c r="R113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18">
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C114" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D114" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E114">
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G114">
         <v>64</v>
@@ -6976,42 +6292,36 @@
         <v>111</v>
       </c>
       <c r="I114" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J114" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M114" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P114">
         <v>0</v>
       </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18">
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C115" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D115" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E115">
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G115">
         <v>65</v>
@@ -7020,42 +6330,36 @@
         <v>113</v>
       </c>
       <c r="I115" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J115" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="M115" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P115">
         <v>0</v>
       </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-      <c r="R115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18">
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C116" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D116" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G116">
         <v>67</v>
@@ -7064,42 +6368,36 @@
         <v>115</v>
       </c>
       <c r="I116" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J116" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M116" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P116">
         <v>0</v>
       </c>
-      <c r="Q116">
-        <v>0</v>
-      </c>
-      <c r="R116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18">
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D117" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G117">
         <v>69</v>
@@ -7108,42 +6406,36 @@
         <v>118</v>
       </c>
       <c r="I117" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J117" s="2">
         <v>45058.12305555555</v>
       </c>
       <c r="M117" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P117">
         <v>0</v>
       </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18">
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C118" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D118" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E118">
         <v>117</v>
       </c>
       <c r="F118" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G118">
         <v>70</v>
@@ -7152,42 +6444,36 @@
         <v>119</v>
       </c>
       <c r="I118" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J118" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M118" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P118">
         <v>0</v>
       </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18">
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C119" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D119" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E119">
         <v>118</v>
       </c>
       <c r="F119" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G119">
         <v>70</v>
@@ -7196,21 +6482,15 @@
         <v>119</v>
       </c>
       <c r="I119" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="J119" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M119" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P119">
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <v>0</v>
-      </c>
-      <c r="R119">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p31.xlsx
+++ b/files/separadas/repeat_p31.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\separadas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783C8FCA-DA78-40B6-85ED-0A99A5CE150B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="519">
   <si>
     <t>p31_cod</t>
   </si>
@@ -1597,15 +1603,28 @@
   <si>
     <t>zip</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Por el cual se crea el Comité Institucional de Gestión y Desempeño y se dictan otras disposiciones</t>
+  </si>
+  <si>
+    <t>http://gaia.gobiernobogota.gov.co/sites/default/files/documentos/sig/doc_relacionados/resolucion_783_2018_cigd_y_anexo_equipo_tecnico.pdf</t>
+  </si>
+  <si>
+    <t>Índice de Innovación Pública 2032</t>
+  </si>
+  <si>
+    <t>82e05c17326b46a1a87562fb9db97e0b</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1621,13 +1640,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1657,25 +1695,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1713,7 +1762,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1747,6 +1796,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1781,9 +1831,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1956,14 +2007,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="S121" sqref="S121"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2013,7 +2066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2042,7 +2095,7 @@
         <v>456</v>
       </c>
       <c r="J2" s="2">
-        <v>45013.73163194444</v>
+        <v>45013.731631944444</v>
       </c>
       <c r="M2" t="s">
         <v>513</v>
@@ -2051,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2080,7 +2133,7 @@
         <v>457</v>
       </c>
       <c r="J3" s="2">
-        <v>45021.78807870371</v>
+        <v>45021.788078703707</v>
       </c>
       <c r="M3" t="s">
         <v>513</v>
@@ -2089,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2118,7 +2171,7 @@
         <v>458</v>
       </c>
       <c r="J4" s="2">
-        <v>45026.55694444444</v>
+        <v>45026.556944444441</v>
       </c>
       <c r="M4" t="s">
         <v>513</v>
@@ -2127,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2156,7 +2209,7 @@
         <v>458</v>
       </c>
       <c r="J5" s="2">
-        <v>45026.55694444444</v>
+        <v>45026.556944444441</v>
       </c>
       <c r="M5" t="s">
         <v>513</v>
@@ -2165,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2194,7 +2247,7 @@
         <v>458</v>
       </c>
       <c r="J6" s="2">
-        <v>45026.55694444444</v>
+        <v>45026.556944444441</v>
       </c>
       <c r="M6" t="s">
         <v>513</v>
@@ -2203,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2232,7 +2285,7 @@
         <v>458</v>
       </c>
       <c r="J7" s="2">
-        <v>45026.55694444444</v>
+        <v>45026.556944444441</v>
       </c>
       <c r="M7" t="s">
         <v>513</v>
@@ -2241,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2270,7 +2323,7 @@
         <v>458</v>
       </c>
       <c r="J8" s="2">
-        <v>45026.55694444444</v>
+        <v>45026.556944444441</v>
       </c>
       <c r="M8" t="s">
         <v>513</v>
@@ -2279,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2308,7 +2361,7 @@
         <v>459</v>
       </c>
       <c r="J9" s="2">
-        <v>45026.78277777778</v>
+        <v>45026.782777777778</v>
       </c>
       <c r="M9" t="s">
         <v>513</v>
@@ -2317,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2346,7 +2399,7 @@
         <v>460</v>
       </c>
       <c r="J10" s="2">
-        <v>45027.65930555556</v>
+        <v>45027.659305555557</v>
       </c>
       <c r="M10" t="s">
         <v>513</v>
@@ -2355,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2384,7 +2437,7 @@
         <v>461</v>
       </c>
       <c r="J11" s="2">
-        <v>45028.82005787037</v>
+        <v>45028.820057870369</v>
       </c>
       <c r="M11" t="s">
         <v>513</v>
@@ -2393,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2422,7 +2475,7 @@
         <v>461</v>
       </c>
       <c r="J12" s="2">
-        <v>45028.82005787037</v>
+        <v>45028.820057870369</v>
       </c>
       <c r="M12" t="s">
         <v>513</v>
@@ -2431,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2460,7 +2513,7 @@
         <v>462</v>
       </c>
       <c r="J13" s="2">
-        <v>45028.88724537037</v>
+        <v>45028.887245370373</v>
       </c>
       <c r="M13" t="s">
         <v>513</v>
@@ -2469,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2498,7 +2551,7 @@
         <v>463</v>
       </c>
       <c r="J14" s="2">
-        <v>45028.9031712963</v>
+        <v>45028.903171296297</v>
       </c>
       <c r="M14" t="s">
         <v>513</v>
@@ -2507,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2536,7 +2589,7 @@
         <v>463</v>
       </c>
       <c r="J15" s="2">
-        <v>45028.9031712963</v>
+        <v>45028.903171296297</v>
       </c>
       <c r="M15" t="s">
         <v>513</v>
@@ -2545,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2574,7 +2627,7 @@
         <v>463</v>
       </c>
       <c r="J16" s="2">
-        <v>45028.9031712963</v>
+        <v>45028.903171296297</v>
       </c>
       <c r="M16" t="s">
         <v>513</v>
@@ -2583,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2612,7 +2665,7 @@
         <v>463</v>
       </c>
       <c r="J17" s="2">
-        <v>45028.9031712963</v>
+        <v>45028.903171296297</v>
       </c>
       <c r="M17" t="s">
         <v>513</v>
@@ -2621,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2650,7 +2703,7 @@
         <v>463</v>
       </c>
       <c r="J18" s="2">
-        <v>45028.9031712963</v>
+        <v>45028.903171296297</v>
       </c>
       <c r="M18" t="s">
         <v>513</v>
@@ -2659,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2688,7 +2741,7 @@
         <v>464</v>
       </c>
       <c r="J19" s="2">
-        <v>45029.81189814815</v>
+        <v>45029.811898148153</v>
       </c>
       <c r="M19" t="s">
         <v>513</v>
@@ -2697,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2726,7 +2779,7 @@
         <v>465</v>
       </c>
       <c r="J20" s="2">
-        <v>45029.85457175926</v>
+        <v>45029.854571759257</v>
       </c>
       <c r="M20" t="s">
         <v>514</v>
@@ -2735,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2764,7 +2817,7 @@
         <v>466</v>
       </c>
       <c r="J21" s="2">
-        <v>45029.8639699074</v>
+        <v>45029.863969907397</v>
       </c>
       <c r="M21" t="s">
         <v>513</v>
@@ -2773,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2802,7 +2855,7 @@
         <v>466</v>
       </c>
       <c r="J22" s="2">
-        <v>45029.8639699074</v>
+        <v>45029.863969907397</v>
       </c>
       <c r="M22" t="s">
         <v>513</v>
@@ -2811,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2849,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -2887,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>148</v>
       </c>
@@ -2922,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2951,7 +3004,7 @@
         <v>468</v>
       </c>
       <c r="J26" s="2">
-        <v>45030.71190972222</v>
+        <v>45030.711909722217</v>
       </c>
       <c r="M26" t="s">
         <v>513</v>
@@ -2960,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2989,7 +3042,7 @@
         <v>469</v>
       </c>
       <c r="J27" s="2">
-        <v>45030.72005787037</v>
+        <v>45030.720057870371</v>
       </c>
       <c r="M27" t="s">
         <v>513</v>
@@ -2998,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3027,7 +3080,7 @@
         <v>470</v>
       </c>
       <c r="J28" s="2">
-        <v>45030.79391203704</v>
+        <v>45030.793912037043</v>
       </c>
       <c r="M28" t="s">
         <v>513</v>
@@ -3036,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -3065,7 +3118,7 @@
         <v>471</v>
       </c>
       <c r="J29" s="2">
-        <v>45030.94386574074</v>
+        <v>45030.943865740737</v>
       </c>
       <c r="M29" t="s">
         <v>513</v>
@@ -3074,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -3103,7 +3156,7 @@
         <v>471</v>
       </c>
       <c r="J30" s="2">
-        <v>45030.94386574074</v>
+        <v>45030.943865740737</v>
       </c>
       <c r="M30" t="s">
         <v>513</v>
@@ -3112,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -3141,7 +3194,7 @@
         <v>472</v>
       </c>
       <c r="J31" s="2">
-        <v>45030.95898148148</v>
+        <v>45030.958981481483</v>
       </c>
       <c r="M31" t="s">
         <v>513</v>
@@ -3150,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -3179,7 +3232,7 @@
         <v>473</v>
       </c>
       <c r="J32" s="2">
-        <v>45030.97623842592</v>
+        <v>45030.976238425923</v>
       </c>
       <c r="M32" t="s">
         <v>513</v>
@@ -3188,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -3217,7 +3270,7 @@
         <v>474</v>
       </c>
       <c r="J33" s="2">
-        <v>45031.15133101852</v>
+        <v>45031.151331018518</v>
       </c>
       <c r="M33" t="s">
         <v>513</v>
@@ -3226,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -3255,7 +3308,7 @@
         <v>474</v>
       </c>
       <c r="J34" s="2">
-        <v>45031.15133101852</v>
+        <v>45031.151331018518</v>
       </c>
       <c r="M34" t="s">
         <v>513</v>
@@ -3264,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -3293,7 +3346,7 @@
         <v>474</v>
       </c>
       <c r="J35" s="2">
-        <v>45031.15133101852</v>
+        <v>45031.151331018518</v>
       </c>
       <c r="M35" t="s">
         <v>513</v>
@@ -3302,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -3331,7 +3384,7 @@
         <v>474</v>
       </c>
       <c r="J36" s="2">
-        <v>45031.15133101852</v>
+        <v>45031.151331018518</v>
       </c>
       <c r="M36" t="s">
         <v>513</v>
@@ -3340,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -3369,7 +3422,7 @@
         <v>474</v>
       </c>
       <c r="J37" s="2">
-        <v>45031.15133101852</v>
+        <v>45031.151331018518</v>
       </c>
       <c r="M37" t="s">
         <v>513</v>
@@ -3378,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -3407,7 +3460,7 @@
         <v>474</v>
       </c>
       <c r="J38" s="2">
-        <v>45031.15133101852</v>
+        <v>45031.151331018518</v>
       </c>
       <c r="M38" t="s">
         <v>513</v>
@@ -3416,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -3445,7 +3498,7 @@
         <v>475</v>
       </c>
       <c r="J39" s="2">
-        <v>45031.19106481481</v>
+        <v>45031.191064814811</v>
       </c>
       <c r="M39" t="s">
         <v>513</v>
@@ -3454,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -3483,7 +3536,7 @@
         <v>475</v>
       </c>
       <c r="J40" s="2">
-        <v>45031.19106481481</v>
+        <v>45031.191064814811</v>
       </c>
       <c r="M40" t="s">
         <v>513</v>
@@ -3492,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -3521,7 +3574,7 @@
         <v>475</v>
       </c>
       <c r="J41" s="2">
-        <v>45031.19106481481</v>
+        <v>45031.191064814811</v>
       </c>
       <c r="M41" t="s">
         <v>513</v>
@@ -3530,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -3559,7 +3612,7 @@
         <v>475</v>
       </c>
       <c r="J42" s="2">
-        <v>45031.19106481481</v>
+        <v>45031.191064814811</v>
       </c>
       <c r="M42" t="s">
         <v>513</v>
@@ -3568,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -3597,7 +3650,7 @@
         <v>475</v>
       </c>
       <c r="J43" s="2">
-        <v>45031.19106481481</v>
+        <v>45031.191064814811</v>
       </c>
       <c r="M43" t="s">
         <v>513</v>
@@ -3606,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -3635,7 +3688,7 @@
         <v>476</v>
       </c>
       <c r="J44" s="2">
-        <v>45033.69763888889</v>
+        <v>45033.697638888887</v>
       </c>
       <c r="M44" t="s">
         <v>514</v>
@@ -3644,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -3673,7 +3726,7 @@
         <v>476</v>
       </c>
       <c r="J45" s="2">
-        <v>45033.69763888889</v>
+        <v>45033.697638888887</v>
       </c>
       <c r="M45" t="s">
         <v>514</v>
@@ -3682,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -3711,7 +3764,7 @@
         <v>476</v>
       </c>
       <c r="J46" s="2">
-        <v>45033.69763888889</v>
+        <v>45033.697638888887</v>
       </c>
       <c r="M46" t="s">
         <v>514</v>
@@ -3720,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -3749,7 +3802,7 @@
         <v>476</v>
       </c>
       <c r="J47" s="2">
-        <v>45033.69763888889</v>
+        <v>45033.697638888887</v>
       </c>
       <c r="M47" t="s">
         <v>514</v>
@@ -3758,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -3787,7 +3840,7 @@
         <v>477</v>
       </c>
       <c r="J48" s="2">
-        <v>45033.88635416667</v>
+        <v>45033.886354166672</v>
       </c>
       <c r="M48" t="s">
         <v>513</v>
@@ -3796,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3825,7 +3878,7 @@
         <v>478</v>
       </c>
       <c r="J49" s="2">
-        <v>45034.64582175926</v>
+        <v>45034.645821759259</v>
       </c>
       <c r="M49" t="s">
         <v>513</v>
@@ -3834,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3863,7 +3916,7 @@
         <v>478</v>
       </c>
       <c r="J50" s="2">
-        <v>45034.64582175926</v>
+        <v>45034.645821759259</v>
       </c>
       <c r="M50" t="s">
         <v>513</v>
@@ -3872,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -3910,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3948,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3977,7 +4030,7 @@
         <v>480</v>
       </c>
       <c r="J53" s="2">
-        <v>45034.89546296297</v>
+        <v>45034.895462962973</v>
       </c>
       <c r="M53" t="s">
         <v>513</v>
@@ -3986,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -4015,7 +4068,7 @@
         <v>480</v>
       </c>
       <c r="J54" s="2">
-        <v>45034.89546296297</v>
+        <v>45034.895462962973</v>
       </c>
       <c r="M54" t="s">
         <v>513</v>
@@ -4024,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -4053,7 +4106,7 @@
         <v>480</v>
       </c>
       <c r="J55" s="2">
-        <v>45034.89546296297</v>
+        <v>45034.895462962973</v>
       </c>
       <c r="M55" t="s">
         <v>513</v>
@@ -4062,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -4091,7 +4144,7 @@
         <v>480</v>
       </c>
       <c r="J56" s="2">
-        <v>45034.89546296297</v>
+        <v>45034.895462962973</v>
       </c>
       <c r="M56" t="s">
         <v>513</v>
@@ -4100,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -4129,7 +4182,7 @@
         <v>480</v>
       </c>
       <c r="J57" s="2">
-        <v>45034.89546296297</v>
+        <v>45034.895462962973</v>
       </c>
       <c r="M57" t="s">
         <v>513</v>
@@ -4138,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -4167,7 +4220,7 @@
         <v>480</v>
       </c>
       <c r="J58" s="2">
-        <v>45034.89546296297</v>
+        <v>45034.895462962973</v>
       </c>
       <c r="M58" t="s">
         <v>513</v>
@@ -4176,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -4205,7 +4258,7 @@
         <v>481</v>
       </c>
       <c r="J59" s="2">
-        <v>45034.90506944444</v>
+        <v>45034.905069444438</v>
       </c>
       <c r="M59" t="s">
         <v>513</v>
@@ -4214,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -4243,7 +4296,7 @@
         <v>481</v>
       </c>
       <c r="J60" s="2">
-        <v>45034.90506944444</v>
+        <v>45034.905069444438</v>
       </c>
       <c r="M60" t="s">
         <v>513</v>
@@ -4252,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -4281,7 +4334,7 @@
         <v>481</v>
       </c>
       <c r="J61" s="2">
-        <v>45034.90506944444</v>
+        <v>45034.905069444438</v>
       </c>
       <c r="M61" t="s">
         <v>513</v>
@@ -4290,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -4319,7 +4372,7 @@
         <v>481</v>
       </c>
       <c r="J62" s="2">
-        <v>45034.90506944444</v>
+        <v>45034.905069444438</v>
       </c>
       <c r="M62" t="s">
         <v>513</v>
@@ -4328,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -4357,7 +4410,7 @@
         <v>481</v>
       </c>
       <c r="J63" s="2">
-        <v>45034.90506944444</v>
+        <v>45034.905069444438</v>
       </c>
       <c r="M63" t="s">
         <v>513</v>
@@ -4366,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -4395,7 +4448,7 @@
         <v>481</v>
       </c>
       <c r="J64" s="2">
-        <v>45034.90506944444</v>
+        <v>45034.905069444438</v>
       </c>
       <c r="M64" t="s">
         <v>513</v>
@@ -4404,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -4433,7 +4486,7 @@
         <v>482</v>
       </c>
       <c r="J65" s="2">
-        <v>45034.92369212963</v>
+        <v>45034.923692129632</v>
       </c>
       <c r="M65" t="s">
         <v>513</v>
@@ -4442,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -4471,7 +4524,7 @@
         <v>483</v>
       </c>
       <c r="J66" s="2">
-        <v>45034.94509259259</v>
+        <v>45034.945092592592</v>
       </c>
       <c r="M66" t="s">
         <v>513</v>
@@ -4480,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -4509,7 +4562,7 @@
         <v>483</v>
       </c>
       <c r="J67" s="2">
-        <v>45034.94509259259</v>
+        <v>45034.945092592592</v>
       </c>
       <c r="M67" t="s">
         <v>513</v>
@@ -4518,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -4547,7 +4600,7 @@
         <v>483</v>
       </c>
       <c r="J68" s="2">
-        <v>45034.94509259259</v>
+        <v>45034.945092592592</v>
       </c>
       <c r="M68" t="s">
         <v>513</v>
@@ -4556,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4585,7 +4638,7 @@
         <v>484</v>
       </c>
       <c r="J69" s="2">
-        <v>45035.70458333333</v>
+        <v>45035.704583333332</v>
       </c>
       <c r="M69" t="s">
         <v>513</v>
@@ -4594,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4623,7 +4676,7 @@
         <v>484</v>
       </c>
       <c r="J70" s="2">
-        <v>45035.70458333333</v>
+        <v>45035.704583333332</v>
       </c>
       <c r="M70" t="s">
         <v>513</v>
@@ -4632,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -4661,7 +4714,7 @@
         <v>484</v>
       </c>
       <c r="J71" s="2">
-        <v>45035.70458333333</v>
+        <v>45035.704583333332</v>
       </c>
       <c r="M71" t="s">
         <v>513</v>
@@ -4670,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -4699,7 +4752,7 @@
         <v>484</v>
       </c>
       <c r="J72" s="2">
-        <v>45035.70458333333</v>
+        <v>45035.704583333332</v>
       </c>
       <c r="M72" t="s">
         <v>513</v>
@@ -4708,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4737,7 +4790,7 @@
         <v>485</v>
       </c>
       <c r="J73" s="2">
-        <v>45035.83660879629</v>
+        <v>45035.836608796293</v>
       </c>
       <c r="M73" t="s">
         <v>513</v>
@@ -4746,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -4775,7 +4828,7 @@
         <v>485</v>
       </c>
       <c r="J74" s="2">
-        <v>45035.83660879629</v>
+        <v>45035.836608796293</v>
       </c>
       <c r="M74" t="s">
         <v>513</v>
@@ -4784,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -4822,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -4860,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -4889,7 +4942,7 @@
         <v>487</v>
       </c>
       <c r="J77" s="2">
-        <v>45040.91716435185</v>
+        <v>45040.917164351849</v>
       </c>
       <c r="M77" t="s">
         <v>513</v>
@@ -4898,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4927,7 +4980,7 @@
         <v>487</v>
       </c>
       <c r="J78" s="2">
-        <v>45040.91716435185</v>
+        <v>45040.917164351849</v>
       </c>
       <c r="M78" t="s">
         <v>513</v>
@@ -4936,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -4965,7 +5018,7 @@
         <v>488</v>
       </c>
       <c r="J79" s="2">
-        <v>45041.15349537037</v>
+        <v>45041.153495370367</v>
       </c>
       <c r="M79" t="s">
         <v>513</v>
@@ -4974,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -5003,7 +5056,7 @@
         <v>488</v>
       </c>
       <c r="J80" s="2">
-        <v>45041.15349537037</v>
+        <v>45041.153495370367</v>
       </c>
       <c r="M80" t="s">
         <v>513</v>
@@ -5012,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -5041,7 +5094,7 @@
         <v>489</v>
       </c>
       <c r="J81" s="2">
-        <v>45041.88762731481</v>
+        <v>45041.887627314813</v>
       </c>
       <c r="M81" t="s">
         <v>513</v>
@@ -5050,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -5079,7 +5132,7 @@
         <v>490</v>
       </c>
       <c r="J82" s="2">
-        <v>45041.98872685185</v>
+        <v>45041.988726851851</v>
       </c>
       <c r="M82" t="s">
         <v>513</v>
@@ -5088,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -5117,7 +5170,7 @@
         <v>491</v>
       </c>
       <c r="J83" s="2">
-        <v>45042.75021990741</v>
+        <v>45042.750219907408</v>
       </c>
       <c r="M83" t="s">
         <v>513</v>
@@ -5126,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -5155,7 +5208,7 @@
         <v>492</v>
       </c>
       <c r="J84" s="2">
-        <v>45042.86403935185</v>
+        <v>45042.864039351851</v>
       </c>
       <c r="M84" t="s">
         <v>513</v>
@@ -5164,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -5193,7 +5246,7 @@
         <v>493</v>
       </c>
       <c r="J85" s="2">
-        <v>45042.98253472222</v>
+        <v>45042.982534722221</v>
       </c>
       <c r="M85" t="s">
         <v>513</v>
@@ -5202,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -5231,7 +5284,7 @@
         <v>493</v>
       </c>
       <c r="J86" s="2">
-        <v>45042.98253472222</v>
+        <v>45042.982534722221</v>
       </c>
       <c r="M86" t="s">
         <v>513</v>
@@ -5240,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -5269,7 +5322,7 @@
         <v>494</v>
       </c>
       <c r="J87" s="2">
-        <v>45043.74630787037</v>
+        <v>45043.746307870373</v>
       </c>
       <c r="M87" t="s">
         <v>513</v>
@@ -5278,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -5307,7 +5360,7 @@
         <v>494</v>
       </c>
       <c r="J88" s="2">
-        <v>45043.74630787037</v>
+        <v>45043.746307870373</v>
       </c>
       <c r="M88" t="s">
         <v>513</v>
@@ -5316,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -5345,7 +5398,7 @@
         <v>495</v>
       </c>
       <c r="J89" s="2">
-        <v>45043.91252314814</v>
+        <v>45043.912523148138</v>
       </c>
       <c r="M89" t="s">
         <v>514</v>
@@ -5354,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -5383,7 +5436,7 @@
         <v>495</v>
       </c>
       <c r="J90" s="2">
-        <v>45043.91252314814</v>
+        <v>45043.912523148138</v>
       </c>
       <c r="M90" t="s">
         <v>514</v>
@@ -5392,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -5421,7 +5474,7 @@
         <v>495</v>
       </c>
       <c r="J91" s="2">
-        <v>45043.91252314814</v>
+        <v>45043.912523148138</v>
       </c>
       <c r="M91" t="s">
         <v>514</v>
@@ -5430,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -5459,7 +5512,7 @@
         <v>495</v>
       </c>
       <c r="J92" s="2">
-        <v>45043.91252314814</v>
+        <v>45043.912523148138</v>
       </c>
       <c r="M92" t="s">
         <v>514</v>
@@ -5468,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>105</v>
       </c>
@@ -5497,7 +5550,7 @@
         <v>495</v>
       </c>
       <c r="J93" s="2">
-        <v>45043.91252314814</v>
+        <v>45043.912523148138</v>
       </c>
       <c r="M93" t="s">
         <v>514</v>
@@ -5506,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -5535,7 +5588,7 @@
         <v>495</v>
       </c>
       <c r="J94" s="2">
-        <v>45043.91252314814</v>
+        <v>45043.912523148138</v>
       </c>
       <c r="M94" t="s">
         <v>514</v>
@@ -5544,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>107</v>
       </c>
@@ -5582,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -5620,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -5649,7 +5702,7 @@
         <v>497</v>
       </c>
       <c r="J97" s="2">
-        <v>45044.00171296296</v>
+        <v>45044.001712962963</v>
       </c>
       <c r="M97" t="s">
         <v>513</v>
@@ -5658,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>110</v>
       </c>
@@ -5687,7 +5740,7 @@
         <v>498</v>
       </c>
       <c r="J98" s="2">
-        <v>45044.5144212963</v>
+        <v>45044.514421296299</v>
       </c>
       <c r="M98" t="s">
         <v>513</v>
@@ -5696,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>111</v>
       </c>
@@ -5725,7 +5778,7 @@
         <v>499</v>
       </c>
       <c r="J99" s="2">
-        <v>45044.87012731482</v>
+        <v>45044.870127314818</v>
       </c>
       <c r="M99" t="s">
         <v>513</v>
@@ -5734,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -5763,7 +5816,7 @@
         <v>500</v>
       </c>
       <c r="J100" s="2">
-        <v>45044.87517361111</v>
+        <v>45044.875173611108</v>
       </c>
       <c r="M100" t="s">
         <v>513</v>
@@ -5772,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -5801,7 +5854,7 @@
         <v>500</v>
       </c>
       <c r="J101" s="2">
-        <v>45044.87517361111</v>
+        <v>45044.875173611108</v>
       </c>
       <c r="M101" t="s">
         <v>513</v>
@@ -5810,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>114</v>
       </c>
@@ -5839,7 +5892,7 @@
         <v>500</v>
       </c>
       <c r="J102" s="2">
-        <v>45044.87517361111</v>
+        <v>45044.875173611108</v>
       </c>
       <c r="M102" t="s">
         <v>513</v>
@@ -5848,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -5877,7 +5930,7 @@
         <v>501</v>
       </c>
       <c r="J103" s="2">
-        <v>45044.94196759259</v>
+        <v>45044.941967592589</v>
       </c>
       <c r="M103" t="s">
         <v>514</v>
@@ -5886,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -5915,7 +5968,7 @@
         <v>502</v>
       </c>
       <c r="J104" s="2">
-        <v>45044.95618055556</v>
+        <v>45044.956180555557</v>
       </c>
       <c r="M104" t="s">
         <v>513</v>
@@ -5924,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>77</v>
       </c>
@@ -5962,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -5991,7 +6044,7 @@
         <v>504</v>
       </c>
       <c r="J106" s="2">
-        <v>45045.00479166667</v>
+        <v>45045.004791666674</v>
       </c>
       <c r="M106" t="s">
         <v>513</v>
@@ -6000,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>117</v>
       </c>
@@ -6029,7 +6082,7 @@
         <v>504</v>
       </c>
       <c r="J107" s="2">
-        <v>45045.00479166667</v>
+        <v>45045.004791666674</v>
       </c>
       <c r="M107" t="s">
         <v>513</v>
@@ -6038,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>118</v>
       </c>
@@ -6067,7 +6120,7 @@
         <v>504</v>
       </c>
       <c r="J108" s="2">
-        <v>45045.00479166667</v>
+        <v>45045.004791666674</v>
       </c>
       <c r="M108" t="s">
         <v>513</v>
@@ -6076,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>95</v>
       </c>
@@ -6105,7 +6158,7 @@
         <v>505</v>
       </c>
       <c r="J109" s="2">
-        <v>45045.07196759259</v>
+        <v>45045.071967592587</v>
       </c>
       <c r="M109" t="s">
         <v>513</v>
@@ -6114,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -6143,7 +6196,7 @@
         <v>505</v>
       </c>
       <c r="J110" s="2">
-        <v>45045.07196759259</v>
+        <v>45045.071967592587</v>
       </c>
       <c r="M110" t="s">
         <v>513</v>
@@ -6152,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>120</v>
       </c>
@@ -6181,7 +6234,7 @@
         <v>505</v>
       </c>
       <c r="J111" s="2">
-        <v>45045.07196759259</v>
+        <v>45045.071967592587</v>
       </c>
       <c r="M111" t="s">
         <v>513</v>
@@ -6190,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>121</v>
       </c>
@@ -6219,7 +6272,7 @@
         <v>506</v>
       </c>
       <c r="J112" s="2">
-        <v>45045.13675925926</v>
+        <v>45045.136759259258</v>
       </c>
       <c r="M112" t="s">
         <v>513</v>
@@ -6228,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>121</v>
       </c>
@@ -6257,7 +6310,7 @@
         <v>507</v>
       </c>
       <c r="J113" s="2">
-        <v>45045.14796296296</v>
+        <v>45045.147962962961</v>
       </c>
       <c r="M113" t="s">
         <v>513</v>
@@ -6266,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -6295,7 +6348,7 @@
         <v>508</v>
       </c>
       <c r="J114" s="2">
-        <v>45045.67958333333</v>
+        <v>45045.679583333331</v>
       </c>
       <c r="M114" t="s">
         <v>513</v>
@@ -6304,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -6333,7 +6386,7 @@
         <v>509</v>
       </c>
       <c r="J115" s="2">
-        <v>45046.88504629629</v>
+        <v>45046.885046296287</v>
       </c>
       <c r="M115" t="s">
         <v>513</v>
@@ -6342,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -6371,7 +6424,7 @@
         <v>510</v>
       </c>
       <c r="J116" s="2">
-        <v>45048.69172453704</v>
+        <v>45048.691724537042</v>
       </c>
       <c r="M116" t="s">
         <v>514</v>
@@ -6380,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -6409,7 +6462,7 @@
         <v>511</v>
       </c>
       <c r="J117" s="2">
-        <v>45058.12305555555</v>
+        <v>45058.123055555552</v>
       </c>
       <c r="M117" t="s">
         <v>513</v>
@@ -6418,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -6447,7 +6500,7 @@
         <v>512</v>
       </c>
       <c r="J118" s="2">
-        <v>45059.22766203704</v>
+        <v>45059.227662037039</v>
       </c>
       <c r="M118" t="s">
         <v>513</v>
@@ -6456,7 +6509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -6485,12 +6538,53 @@
         <v>512</v>
       </c>
       <c r="J119" s="2">
-        <v>45059.22766203704</v>
+        <v>45059.227662037039</v>
       </c>
       <c r="M119" t="s">
         <v>513</v>
       </c>
       <c r="P119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E120">
+        <v>119</v>
+      </c>
+      <c r="F120" t="s">
+        <v>517</v>
+      </c>
+      <c r="G120" s="4">
+        <v>47</v>
+      </c>
+      <c r="H120" s="4">
+        <v>91</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="J120" s="5">
+        <v>45043</v>
+      </c>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" t="s">
+        <v>513</v>
+      </c>
+      <c r="N120" s="3"/>
+      <c r="P120">
         <v>0</v>
       </c>
     </row>
